--- a/tests/test1/output/main-stats.xlsx
+++ b/tests/test1/output/main-stats.xlsx
@@ -75,85 +75,97 @@
     <x:t>Scene1</x:t>
   </x:si>
   <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
+    <x:t xml:space="preserve"> 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 0</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scene1.ink:1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScene</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 50?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barks</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Recording</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 14</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Branches</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches.ink:1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches.ink:61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Non-Dink</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Totals</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>scene1.ink:1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScene</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Barks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Recording</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Branches</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>branches.ink:1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>branches.ink:61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Non-Dink</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Totals</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
   </x:si>
   <x:si>
     <x:t>120?</x:t>
@@ -1672,20 +1684,20 @@
       <x:c r="G2" s="10" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H2" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I2" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K2" s="11">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="L2" s="1">
-        <x:v>0</x:v>
+      <x:c r="H2" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K2" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M2" s="10">
         <x:v>8</x:v>
@@ -1716,20 +1728,20 @@
       <x:c r="G3" s="10" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="H3" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I3" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J3" s="14">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K3" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L3" s="1">
-        <x:v>0</x:v>
+      <x:c r="H3" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J3" s="14" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M3" s="10">
         <x:v>4</x:v>
@@ -1760,20 +1772,20 @@
       <x:c r="G4" s="10" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="H4" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I4" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J4" s="14">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="K4" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L4" s="1">
-        <x:v>0</x:v>
+      <x:c r="H4" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I4" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J4" s="14" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K4" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M4" s="10">
         <x:v>7</x:v>
@@ -1804,20 +1816,20 @@
       <x:c r="G5" s="10" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="H5" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I5" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J5" s="14">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="K5" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L5" s="1">
-        <x:v>0</x:v>
+      <x:c r="H5" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I5" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J5" s="14" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="K5" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="L5" s="1" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M5" s="10">
         <x:v>15</x:v>
@@ -1848,34 +1860,34 @@
       <x:c r="G6" s="10" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="H6" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I6" s="13">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J6" s="14">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="K6" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L6" s="1">
-        <x:v>0</x:v>
+      <x:c r="H6" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I6" s="13" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J6" s="14" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K6" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="L6" s="1" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M6" s="10">
         <x:v>20</x:v>
       </x:c>
       <x:c r="N6" s="12" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A7" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>16</x:v>
@@ -1890,93 +1902,93 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G7" s="10" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H7" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I7" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J7" s="14">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K7" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L7" s="1">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I7" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J7" s="14" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="K7" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="L7" s="1" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M7" s="10">
         <x:v>6</x:v>
       </x:c>
       <x:c r="N7" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A8" s="15" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B8" s="16">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C8" s="17">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D8" s="17">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E8" s="17">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F8" s="17">
-        <x:v>4</x:v>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B8" s="16" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C8" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D8" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E8" s="17" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F8" s="17" t="s">
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G8" s="18">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M8" s="20" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N8" s="12"/>
     </x:row>
     <x:row r="9" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A9" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B9" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C9" s="22" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D9" s="22" t="s">
-        <x:v>26</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E9" s="22" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F9" s="22" t="s">
-        <x:v>17</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G9" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H9" s="22">
         <x:v>0</x:v>
@@ -2033,30 +2045,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D1" s="23" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E1" s="23" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F1" s="23" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A2" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B2" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C2" s="12">
         <x:v>18</x:v>
@@ -2073,7 +2085,7 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A3" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C3" s="12">
         <x:v>2</x:v>
@@ -2090,10 +2102,10 @@
     </x:row>
     <x:row r="4" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A4" s="7" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B4" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C4" s="12">
         <x:v>12</x:v>
@@ -2110,7 +2122,7 @@
     </x:row>
     <x:row r="5" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A5" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C5" s="12">
         <x:v>0</x:v>
@@ -2127,7 +2139,7 @@
     </x:row>
     <x:row r="6" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A6" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C6" s="12">
         <x:v>20</x:v>
@@ -2185,7 +2197,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:14" ht="27" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
         <x:v>1</x:v>
@@ -2221,1819 +2233,1819 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="M1" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N1" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A2" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B2" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F2" s="27"/>
       <x:c r="J2" s="28" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K2" s="27"/>
       <x:c r="L2" s="12" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="M2" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N2" s="12" t="s">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A3" s="7" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B3" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F3" s="27"/>
       <x:c r="J3" s="28" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K3" s="27"/>
       <x:c r="L3" s="12" t="s">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="M3" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N3" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A4" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B4" s="26"/>
       <x:c r="F4" s="29" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G4" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H4" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I4" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J4" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K4" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L4" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="M4" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N4" s="12" t="s">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A5" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B5" s="26"/>
       <x:c r="F5" s="29" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J5" s="28" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K5" s="27"/>
       <x:c r="L5" s="12" t="s">
-        <x:v>68</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M5" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N5" s="12" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A6" s="7" t="s">
-        <x:v>70</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B6" s="26"/>
       <x:c r="F6" s="29" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G6" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H6" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I6" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J6" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K6" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L6" s="12" t="s">
-        <x:v>71</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M6" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N6" s="12" t="s">
-        <x:v>72</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A7" s="7" t="s">
-        <x:v>73</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B7" s="26"/>
       <x:c r="F7" s="29" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J7" s="28" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K7" s="27"/>
       <x:c r="L7" s="12" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M7" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N7" s="12" t="s">
-        <x:v>75</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A8" s="7" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B8" s="26"/>
       <x:c r="F8" s="29" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G8" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H8" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I8" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J8" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K8" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L8" s="12" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M8" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N8" s="12" t="s">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A9" s="7" t="s">
-        <x:v>79</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B9" s="26"/>
       <x:c r="F9" s="29" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J9" s="28" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K9" s="27"/>
       <x:c r="L9" s="12" t="s">
-        <x:v>80</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="M9" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N9" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A10" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B10" s="26"/>
       <x:c r="F10" s="29" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J10" s="28" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K10" s="27"/>
       <x:c r="L10" s="12" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M10" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N10" s="12" t="s">
-        <x:v>84</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A11" s="7" t="s">
-        <x:v>85</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B11" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F11" s="27"/>
       <x:c r="J11" s="28" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K11" s="27"/>
       <x:c r="L11" s="12" t="s">
-        <x:v>86</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="M11" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N11" s="12" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A12" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B12" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F12" s="27"/>
       <x:c r="J12" s="28" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K12" s="27"/>
       <x:c r="L12" s="12" t="s">
-        <x:v>89</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M12" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N12" s="12" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A13" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B13" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F13" s="27"/>
       <x:c r="G13" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H13" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I13" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J13" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K13" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L13" s="12" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M13" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N13" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A14" s="7" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B14" s="26"/>
       <x:c r="E14" s="28" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F14" s="27"/>
       <x:c r="G14" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I14" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J14" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K14" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L14" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M14" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N14" s="12" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A15" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B15" s="26"/>
       <x:c r="F15" s="29" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G15" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H15" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I15" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J15" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K15" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L15" s="12" t="s">
-        <x:v>98</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M15" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N15" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A16" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B16" s="26"/>
       <x:c r="C16" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F16" s="27"/>
       <x:c r="I16" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K16" s="27"/>
       <x:c r="L16" s="12" t="s">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M16" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N16" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A17" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B17" s="26"/>
       <x:c r="C17" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F17" s="27"/>
       <x:c r="I17" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K17" s="27"/>
       <x:c r="L17" s="12" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="M17" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N17" s="12" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A18" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B18" s="26"/>
       <x:c r="C18" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F18" s="27"/>
       <x:c r="I18" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K18" s="27"/>
       <x:c r="L18" s="12" t="s">
-        <x:v>107</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M18" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N18" s="12" t="s">
-        <x:v>108</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B19" s="26"/>
       <x:c r="C19" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F19" s="27"/>
       <x:c r="I19" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K19" s="27"/>
       <x:c r="L19" s="12" t="s">
-        <x:v>110</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="M19" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N19" s="12" t="s">
-        <x:v>111</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A20" s="7" t="s">
-        <x:v>112</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B20" s="26"/>
       <x:c r="C20" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F20" s="27"/>
       <x:c r="I20" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K20" s="27"/>
       <x:c r="L20" s="12" t="s">
-        <x:v>113</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="M20" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N20" s="12" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A21" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B21" s="26"/>
       <x:c r="C21" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F21" s="27"/>
       <x:c r="I21" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K21" s="27"/>
       <x:c r="L21" s="12" t="s">
-        <x:v>116</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="M21" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N21" s="12" t="s">
-        <x:v>117</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A22" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B22" s="26"/>
       <x:c r="C22" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F22" s="27"/>
       <x:c r="I22" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K22" s="27"/>
       <x:c r="L22" s="12" t="s">
-        <x:v>119</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="M22" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N22" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A23" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B23" s="26"/>
       <x:c r="C23" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F23" s="27"/>
       <x:c r="I23" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K23" s="27"/>
       <x:c r="L23" s="12" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="M23" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N23" s="12" t="s">
-        <x:v>123</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A24" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B24" s="26"/>
       <x:c r="C24" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F24" s="27"/>
       <x:c r="I24" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K24" s="27"/>
       <x:c r="L24" s="12" t="s">
-        <x:v>125</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="M24" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N24" s="12" t="s">
-        <x:v>126</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A25" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B25" s="26"/>
       <x:c r="C25" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F25" s="27"/>
       <x:c r="I25" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K25" s="27"/>
       <x:c r="L25" s="12" t="s">
-        <x:v>128</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="M25" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N25" s="12" t="s">
-        <x:v>129</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A26" s="7" t="s">
-        <x:v>130</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B26" s="26"/>
       <x:c r="C26" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F26" s="27"/>
       <x:c r="I26" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K26" s="27"/>
       <x:c r="L26" s="12" t="s">
-        <x:v>131</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="M26" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N26" s="12" t="s">
-        <x:v>132</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A27" s="7" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B27" s="26"/>
       <x:c r="D27" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F27" s="27"/>
       <x:c r="I27" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K27" s="27"/>
       <x:c r="L27" s="12" t="s">
-        <x:v>134</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="M27" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N27" s="12" t="s">
-        <x:v>135</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A28" s="7" t="s">
-        <x:v>136</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B28" s="26"/>
       <x:c r="E28" s="28" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F28" s="27"/>
       <x:c r="I28" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K28" s="27"/>
       <x:c r="L28" s="12" t="s">
-        <x:v>137</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="M28" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N28" s="12" t="s">
-        <x:v>138</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A29" s="7" t="s">
-        <x:v>139</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B29" s="26"/>
       <x:c r="D29" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F29" s="27"/>
       <x:c r="I29" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K29" s="27"/>
       <x:c r="L29" s="12" t="s">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="M29" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N29" s="12" t="s">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A30" s="7" t="s">
-        <x:v>142</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B30" s="26"/>
       <x:c r="D30" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F30" s="27"/>
       <x:c r="I30" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K30" s="27"/>
       <x:c r="L30" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M30" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N30" s="12" t="s">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A31" s="7" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B31" s="26"/>
       <x:c r="D31" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F31" s="27"/>
       <x:c r="I31" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K31" s="27"/>
       <x:c r="L31" s="12" t="s">
-        <x:v>145</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="M31" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N31" s="12" t="s">
-        <x:v>146</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A32" s="7" t="s">
-        <x:v>147</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B32" s="26"/>
       <x:c r="D32" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F32" s="27"/>
       <x:c r="I32" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K32" s="27"/>
       <x:c r="L32" s="12" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="M32" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N32" s="12" t="s">
-        <x:v>149</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A33" s="7" t="s">
-        <x:v>150</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B33" s="26"/>
       <x:c r="D33" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F33" s="27"/>
       <x:c r="I33" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K33" s="27"/>
       <x:c r="L33" s="12" t="s">
-        <x:v>151</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="M33" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N33" s="12" t="s">
-        <x:v>152</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A34" s="7" t="s">
-        <x:v>153</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B34" s="26"/>
       <x:c r="D34" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F34" s="27"/>
       <x:c r="I34" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K34" s="27"/>
       <x:c r="L34" s="12" t="s">
-        <x:v>154</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="M34" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N34" s="12" t="s">
-        <x:v>155</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A35" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B35" s="26"/>
       <x:c r="D35" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F35" s="27"/>
       <x:c r="I35" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K35" s="27"/>
       <x:c r="L35" s="12" t="s">
-        <x:v>157</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="M35" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N35" s="12" t="s">
-        <x:v>158</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A36" s="7" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B36" s="26"/>
       <x:c r="D36" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F36" s="27"/>
       <x:c r="I36" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K36" s="27"/>
       <x:c r="L36" s="12" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="M36" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N36" s="12" t="s">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A37" s="7" t="s">
-        <x:v>161</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B37" s="26"/>
       <x:c r="D37" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F37" s="27"/>
       <x:c r="I37" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K37" s="27"/>
       <x:c r="L37" s="12" t="s">
-        <x:v>162</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="M37" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N37" s="12" t="s">
-        <x:v>146</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A38" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B38" s="26"/>
       <x:c r="D38" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F38" s="27"/>
       <x:c r="I38" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K38" s="27"/>
       <x:c r="L38" s="12" t="s">
-        <x:v>164</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="M38" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N38" s="12" t="s">
-        <x:v>165</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A39" s="7" t="s">
-        <x:v>166</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B39" s="26"/>
       <x:c r="D39" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F39" s="27"/>
       <x:c r="I39" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K39" s="27"/>
       <x:c r="L39" s="12" t="s">
-        <x:v>167</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="M39" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N39" s="12" t="s">
-        <x:v>168</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A40" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B40" s="26"/>
       <x:c r="D40" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F40" s="27"/>
       <x:c r="I40" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K40" s="27"/>
       <x:c r="L40" s="12" t="s">
-        <x:v>170</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="M40" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N40" s="12" t="s">
-        <x:v>171</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A41" s="7" t="s">
-        <x:v>172</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B41" s="26"/>
       <x:c r="D41" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F41" s="27"/>
       <x:c r="I41" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K41" s="27"/>
       <x:c r="L41" s="12" t="s">
-        <x:v>173</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="M41" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N41" s="12" t="s">
-        <x:v>174</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A42" s="7" t="s">
-        <x:v>175</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B42" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F42" s="27"/>
       <x:c r="I42" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K42" s="27"/>
       <x:c r="L42" s="12" t="s">
-        <x:v>176</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="M42" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N42" s="12" t="s">
-        <x:v>177</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A43" s="7" t="s">
-        <x:v>178</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B43" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F43" s="27"/>
       <x:c r="H43" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K43" s="27"/>
       <x:c r="L43" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="M43" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N43" s="12" t="s">
-        <x:v>180</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A44" s="7" t="s">
-        <x:v>181</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B44" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F44" s="27"/>
       <x:c r="G44" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H44" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I44" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J44" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K44" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L44" s="12" t="s">
-        <x:v>182</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="M44" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N44" s="12" t="s">
-        <x:v>183</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A45" s="7" t="s">
-        <x:v>184</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B45" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F45" s="27"/>
       <x:c r="H45" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K45" s="27"/>
       <x:c r="L45" s="12" t="s">
-        <x:v>185</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="M45" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N45" s="12" t="s">
-        <x:v>183</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A46" s="7" t="s">
-        <x:v>186</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B46" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F46" s="27"/>
       <x:c r="H46" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K46" s="27"/>
       <x:c r="L46" s="12" t="s">
-        <x:v>187</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="M46" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N46" s="12" t="s">
-        <x:v>188</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A47" s="7" t="s">
-        <x:v>189</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B47" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F47" s="27"/>
       <x:c r="G47" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H47" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I47" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J47" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K47" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L47" s="12" t="s">
-        <x:v>190</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="M47" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N47" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A48" s="7" t="s">
-        <x:v>192</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B48" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F48" s="27"/>
       <x:c r="I48" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K48" s="27"/>
       <x:c r="L48" s="12" t="s">
-        <x:v>193</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="M48" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N48" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A49" s="7" t="s">
-        <x:v>194</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B49" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F49" s="27"/>
       <x:c r="I49" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K49" s="27"/>
       <x:c r="L49" s="12" t="s">
-        <x:v>195</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="M49" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N49" s="12" t="s">
-        <x:v>196</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A50" s="7" t="s">
-        <x:v>197</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B50" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F50" s="27"/>
       <x:c r="I50" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K50" s="27"/>
       <x:c r="L50" s="12" t="s">
-        <x:v>198</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="M50" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N50" s="12" t="s">
-        <x:v>199</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A51" s="7" t="s">
-        <x:v>200</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B51" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F51" s="27"/>
       <x:c r="I51" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K51" s="27"/>
       <x:c r="L51" s="12" t="s">
-        <x:v>201</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="M51" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N51" s="12" t="s">
-        <x:v>202</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A52" s="7" t="s">
-        <x:v>203</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B52" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F52" s="27"/>
       <x:c r="G52" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H52" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I52" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J52" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K52" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L52" s="12" t="s">
-        <x:v>204</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="M52" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N52" s="12" t="s">
-        <x:v>205</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A53" s="7" t="s">
-        <x:v>206</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B53" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F53" s="27"/>
       <x:c r="G53" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H53" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I53" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J53" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K53" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L53" s="12" t="s">
-        <x:v>207</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="M53" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N53" s="12" t="s">
-        <x:v>208</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A54" s="7" t="s">
-        <x:v>209</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B54" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F54" s="27"/>
       <x:c r="H54" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K54" s="27"/>
       <x:c r="L54" s="12" t="s">
-        <x:v>210</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="M54" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N54" s="12" t="s">
-        <x:v>211</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A55" s="7" t="s">
-        <x:v>212</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B55" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F55" s="27"/>
       <x:c r="H55" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K55" s="27"/>
       <x:c r="L55" s="12" t="s">
-        <x:v>213</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="M55" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N55" s="12" t="s">
-        <x:v>214</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A56" s="7" t="s">
-        <x:v>215</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B56" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F56" s="27"/>
       <x:c r="H56" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K56" s="27"/>
       <x:c r="L56" s="12" t="s">
-        <x:v>216</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="M56" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N56" s="12" t="s">
-        <x:v>217</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A57" s="7" t="s">
-        <x:v>218</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B57" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F57" s="27"/>
       <x:c r="H57" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K57" s="27"/>
       <x:c r="L57" s="12" t="s">
-        <x:v>219</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="M57" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N57" s="12" t="s">
-        <x:v>220</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A58" s="7" t="s">
-        <x:v>221</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B58" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F58" s="27"/>
       <x:c r="H58" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K58" s="27"/>
       <x:c r="L58" s="12" t="s">
-        <x:v>222</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="M58" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N58" s="12" t="s">
-        <x:v>223</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A59" s="7" t="s">
-        <x:v>224</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B59" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F59" s="27"/>
       <x:c r="G59" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H59" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I59" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J59" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K59" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L59" s="12" t="s">
-        <x:v>225</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="M59" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N59" s="12" t="s">
-        <x:v>226</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A60" s="7" t="s">
-        <x:v>227</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B60" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F60" s="27"/>
       <x:c r="H60" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K60" s="27"/>
       <x:c r="L60" s="12" t="s">
-        <x:v>228</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="M60" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N60" s="12" t="s">
-        <x:v>229</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A61" s="7" t="s">
-        <x:v>230</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B61" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F61" s="27"/>
       <x:c r="H61" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K61" s="27"/>
       <x:c r="L61" s="12" t="s">
-        <x:v>231</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="M61" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N61" s="12" t="s">
-        <x:v>232</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A62" s="7" t="s">
-        <x:v>233</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B62" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F62" s="27"/>
       <x:c r="G62" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H62" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I62" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J62" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K62" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L62" s="12" t="s">
-        <x:v>234</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="M62" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N62" s="12" t="s">
-        <x:v>235</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A63" s="7" t="s">
-        <x:v>236</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B63" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F63" s="27"/>
       <x:c r="H63" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K63" s="27"/>
       <x:c r="L63" s="12" t="s">
-        <x:v>237</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="M63" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N63" s="12" t="s">
-        <x:v>238</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A64" s="7" t="s">
-        <x:v>239</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B64" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F64" s="27"/>
       <x:c r="H64" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K64" s="27"/>
       <x:c r="L64" s="12" t="s">
-        <x:v>240</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="M64" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N64" s="12" t="s">
-        <x:v>241</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A65" s="7" t="s">
-        <x:v>242</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B65" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F65" s="27"/>
       <x:c r="G65" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H65" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I65" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J65" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K65" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L65" s="12" t="s">
-        <x:v>243</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="M65" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N65" s="12" t="s">
-        <x:v>244</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A66" s="7" t="s">
-        <x:v>245</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B66" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F66" s="27"/>
       <x:c r="G66" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H66" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I66" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J66" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K66" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L66" s="12" t="s">
-        <x:v>246</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="M66" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N66" s="12" t="s">
-        <x:v>247</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A67" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B67" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F67" s="27"/>
       <x:c r="H67" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K67" s="27"/>
       <x:c r="L67" s="12" t="s">
-        <x:v>249</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="M67" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N67" s="12" t="s">
-        <x:v>250</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A68" s="7" t="s">
-        <x:v>251</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B68" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F68" s="27"/>
       <x:c r="H68" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K68" s="27"/>
       <x:c r="L68" s="12" t="s">
-        <x:v>252</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="M68" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N68" s="12" t="s">
-        <x:v>253</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A69" s="7" t="s">
-        <x:v>254</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B69" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F69" s="27"/>
       <x:c r="H69" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K69" s="27"/>
       <x:c r="L69" s="12" t="s">
-        <x:v>255</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="M69" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N69" s="12" t="s">
-        <x:v>256</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A70" s="7" t="s">
-        <x:v>257</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B70" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F70" s="27"/>
       <x:c r="I70" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K70" s="27"/>
       <x:c r="L70" s="12" t="s">
-        <x:v>258</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="M70" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N70" s="12" t="s">
-        <x:v>259</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A71" s="7" t="s">
-        <x:v>260</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B71" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F71" s="27"/>
       <x:c r="I71" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K71" s="27"/>
       <x:c r="L71" s="12" t="s">
-        <x:v>261</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="M71" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N71" s="12" t="s">
-        <x:v>262</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A72" s="7" t="s">
-        <x:v>263</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B72" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F72" s="27"/>
       <x:c r="I72" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K72" s="27"/>
       <x:c r="L72" s="12" t="s">
-        <x:v>264</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="M72" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N72" s="12" t="s">
-        <x:v>265</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A73" s="7" t="s">
-        <x:v>266</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B73" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F73" s="27"/>
       <x:c r="I73" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K73" s="27"/>
       <x:c r="L73" s="12" t="s">
-        <x:v>267</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="M73" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N73" s="12" t="s">
-        <x:v>268</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A74" s="7" t="s">
-        <x:v>269</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B74" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F74" s="27"/>
       <x:c r="I74" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K74" s="27"/>
       <x:c r="L74" s="12" t="s">
-        <x:v>270</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="M74" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N74" s="12" t="s">
-        <x:v>271</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A75" s="7" t="s">
-        <x:v>272</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B75" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F75" s="27"/>
       <x:c r="I75" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K75" s="27"/>
       <x:c r="L75" s="12" t="s">
-        <x:v>273</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="M75" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N75" s="12" t="s">
-        <x:v>274</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/tests/test1/output/main-stats.xlsx
+++ b/tests/test1/output/main-stats.xlsx
@@ -75,13 +75,19 @@
     <x:t>Scene1</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 0</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 8</x:t>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 0</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 8</x:t>
   </x:si>
   <x:si>
     <x:t>scene1.ink:1</x:t>
@@ -90,7 +96,10 @@
     <x:t>TestScene</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 50?</x:t>
+    <x:t>50?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 4</x:t>
   </x:si>
   <x:si>
     <x:t>main.ink:27</x:t>
@@ -99,7 +108,10 @@
     <x:t>Barks</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 7</x:t>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 7</x:t>
   </x:si>
   <x:si>
     <x:t>main.ink:44</x:t>
@@ -108,13 +120,16 @@
     <x:t>Recording</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 14</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 15</x:t>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 15</x:t>
   </x:si>
   <x:si>
     <x:t>main.ink:60</x:t>
@@ -123,10 +138,10 @@
     <x:t>Branches</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 5</x:t>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 5</x:t>
   </x:si>
   <x:si>
     <x:t>branches.ink:1</x:t>
@@ -135,7 +150,10 @@
     <x:t>Flow</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 6</x:t>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 6</x:t>
   </x:si>
   <x:si>
     <x:t>branches.ink:61</x:t>
@@ -144,7 +162,10 @@
     <x:t>Non-Dink</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 9</x:t>
+    <x:t xml:space="preserve"> 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 1</x:t>
   </x:si>
   <x:si>
     <x:t>-</x:t>
@@ -159,13 +180,7 @@
     <x:t>57?</x:t>
   </x:si>
   <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
     <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
   </x:si>
   <x:si>
     <x:t>120?</x:t>
@@ -1685,36 +1700,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H2" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I2" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K2" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L2" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M2" s="10">
         <x:v>8</x:v>
       </x:c>
       <x:c r="N2" s="12" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A3" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C3" s="13" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
         <x:v>16</x:v>
@@ -1726,39 +1741,39 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G3" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H3" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I3" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J3" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L3" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M3" s="10">
         <x:v>4</x:v>
       </x:c>
       <x:c r="N3" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A4" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="13" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
         <x:v>16</x:v>
@@ -1770,33 +1785,33 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G4" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I4" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J4" s="14" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L4" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M4" s="10">
         <x:v>7</x:v>
       </x:c>
       <x:c r="N4" s="12" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A5" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B5" s="8" t="s">
         <x:v>16</x:v>
@@ -1805,45 +1820,45 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D5" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E5" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="G5" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I5" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J5" s="14" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K5" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L5" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M5" s="10">
         <x:v>15</x:v>
       </x:c>
       <x:c r="N5" s="12" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A6" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
         <x:v>16</x:v>
@@ -1858,36 +1873,36 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G6" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I6" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J6" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K6" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L6" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M6" s="10">
         <x:v>20</x:v>
       </x:c>
       <x:c r="N6" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A7" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>16</x:v>
@@ -1902,93 +1917,93 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G7" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I7" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J7" s="14" t="s">
-        <x:v>35</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="K7" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L7" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M7" s="10">
         <x:v>6</x:v>
       </x:c>
       <x:c r="N7" s="12" t="s">
-        <x:v>36</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A8" s="15" t="s">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B8" s="16" t="s">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C8" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E8" s="17" t="s">
-        <x:v>27</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F8" s="17" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G8" s="18">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M8" s="20" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N8" s="12"/>
     </x:row>
     <x:row r="9" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A9" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B9" s="21" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C9" s="22" t="s">
-        <x:v>42</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D9" s="22" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="22" t="s">
-        <x:v>44</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F9" s="22" t="s">
-        <x:v>45</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G9" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H9" s="22">
         <x:v>0</x:v>
@@ -2045,30 +2060,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D1" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E1" s="23" t="s">
-        <x:v>51</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F1" s="23" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A2" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B2" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C2" s="12">
         <x:v>18</x:v>
@@ -2085,7 +2100,7 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A3" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C3" s="12">
         <x:v>2</x:v>
@@ -2102,10 +2117,10 @@
     </x:row>
     <x:row r="4" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A4" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B4" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C4" s="12">
         <x:v>12</x:v>
@@ -2122,7 +2137,7 @@
     </x:row>
     <x:row r="5" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A5" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C5" s="12">
         <x:v>0</x:v>
@@ -2139,7 +2154,7 @@
     </x:row>
     <x:row r="6" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A6" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="12">
         <x:v>20</x:v>
@@ -2197,7 +2212,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:14" ht="27" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
         <x:v>1</x:v>
@@ -2233,1819 +2248,1819 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="M1" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N1" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A2" s="7" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B2" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F2" s="27"/>
       <x:c r="J2" s="28" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K2" s="27"/>
       <x:c r="L2" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M2" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N2" s="12" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A3" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B3" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F3" s="27"/>
       <x:c r="J3" s="28" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K3" s="27"/>
       <x:c r="L3" s="12" t="s">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M3" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N3" s="12" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A4" s="7" t="s">
-        <x:v>68</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B4" s="26"/>
       <x:c r="F4" s="29" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G4" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H4" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I4" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J4" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K4" s="31" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L4" s="12" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M4" s="32" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N4" s="12" t="s">
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A5" s="7" t="s">
-        <x:v>71</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="26"/>
       <x:c r="F5" s="29" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J5" s="28" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K5" s="27"/>
       <x:c r="L5" s="12" t="s">
-        <x:v>72</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="M5" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N5" s="12" t="s">
-        <x:v>73</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A6" s="7" t="s">
-        <x:v>74</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B6" s="26"/>
       <x:c r="F6" s="29" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G6" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H6" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I6" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J6" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K6" s="31" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L6" s="12" t="s">
-        <x:v>75</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="M6" s="32" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N6" s="12" t="s">
-        <x:v>76</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A7" s="7" t="s">
-        <x:v>77</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B7" s="26"/>
       <x:c r="F7" s="29" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J7" s="28" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K7" s="27"/>
       <x:c r="L7" s="12" t="s">
-        <x:v>78</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M7" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N7" s="12" t="s">
-        <x:v>79</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A8" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B8" s="26"/>
       <x:c r="F8" s="29" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G8" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H8" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I8" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J8" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K8" s="31" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L8" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M8" s="32" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N8" s="12" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A9" s="7" t="s">
-        <x:v>83</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B9" s="26"/>
       <x:c r="F9" s="29" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J9" s="28" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K9" s="27"/>
       <x:c r="L9" s="12" t="s">
-        <x:v>84</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="M9" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N9" s="12" t="s">
-        <x:v>85</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A10" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B10" s="26"/>
       <x:c r="F10" s="29" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J10" s="28" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K10" s="27"/>
       <x:c r="L10" s="12" t="s">
-        <x:v>87</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M10" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N10" s="12" t="s">
-        <x:v>88</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A11" s="7" t="s">
-        <x:v>89</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B11" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F11" s="27"/>
       <x:c r="J11" s="28" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K11" s="27"/>
       <x:c r="L11" s="12" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M11" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N11" s="12" t="s">
-        <x:v>91</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A12" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B12" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F12" s="27"/>
       <x:c r="J12" s="28" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K12" s="27"/>
       <x:c r="L12" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M12" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N12" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A13" s="7" t="s">
-        <x:v>95</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B13" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F13" s="27"/>
       <x:c r="G13" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H13" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I13" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J13" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K13" s="31" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L13" s="12" t="s">
-        <x:v>96</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M13" s="32" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N13" s="12" t="s">
-        <x:v>97</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A14" s="7" t="s">
-        <x:v>98</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B14" s="26"/>
       <x:c r="E14" s="28" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F14" s="27"/>
       <x:c r="G14" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H14" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I14" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J14" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K14" s="31" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L14" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M14" s="32" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N14" s="12" t="s">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A15" s="7" t="s">
-        <x:v>101</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B15" s="26"/>
       <x:c r="F15" s="29" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G15" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H15" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I15" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J15" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K15" s="31" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L15" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M15" s="32" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N15" s="12" t="s">
-        <x:v>103</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A16" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B16" s="26"/>
       <x:c r="C16" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F16" s="27"/>
       <x:c r="I16" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K16" s="27"/>
       <x:c r="L16" s="12" t="s">
-        <x:v>105</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M16" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="N16" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A17" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B17" s="26"/>
       <x:c r="C17" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F17" s="27"/>
       <x:c r="I17" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K17" s="27"/>
       <x:c r="L17" s="12" t="s">
-        <x:v>108</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="M17" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="N17" s="12" t="s">
-        <x:v>109</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A18" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B18" s="26"/>
       <x:c r="C18" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F18" s="27"/>
       <x:c r="I18" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K18" s="27"/>
       <x:c r="L18" s="12" t="s">
-        <x:v>111</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="M18" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N18" s="12" t="s">
-        <x:v>112</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B19" s="26"/>
       <x:c r="C19" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F19" s="27"/>
       <x:c r="I19" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K19" s="27"/>
       <x:c r="L19" s="12" t="s">
-        <x:v>114</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="M19" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N19" s="12" t="s">
-        <x:v>115</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A20" s="7" t="s">
-        <x:v>116</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B20" s="26"/>
       <x:c r="C20" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F20" s="27"/>
       <x:c r="I20" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K20" s="27"/>
       <x:c r="L20" s="12" t="s">
-        <x:v>117</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="M20" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N20" s="12" t="s">
-        <x:v>118</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A21" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B21" s="26"/>
       <x:c r="C21" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F21" s="27"/>
       <x:c r="I21" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K21" s="27"/>
       <x:c r="L21" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="M21" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N21" s="12" t="s">
-        <x:v>121</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A22" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B22" s="26"/>
       <x:c r="C22" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F22" s="27"/>
       <x:c r="I22" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K22" s="27"/>
       <x:c r="L22" s="12" t="s">
-        <x:v>123</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="M22" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N22" s="12" t="s">
-        <x:v>124</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A23" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B23" s="26"/>
       <x:c r="C23" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F23" s="27"/>
       <x:c r="I23" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K23" s="27"/>
       <x:c r="L23" s="12" t="s">
-        <x:v>126</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="M23" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N23" s="12" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A24" s="7" t="s">
-        <x:v>128</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B24" s="26"/>
       <x:c r="C24" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F24" s="27"/>
       <x:c r="I24" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K24" s="27"/>
       <x:c r="L24" s="12" t="s">
-        <x:v>129</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M24" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N24" s="12" t="s">
-        <x:v>130</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A25" s="7" t="s">
-        <x:v>131</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B25" s="26"/>
       <x:c r="C25" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F25" s="27"/>
       <x:c r="I25" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K25" s="27"/>
       <x:c r="L25" s="12" t="s">
-        <x:v>132</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="M25" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N25" s="12" t="s">
-        <x:v>133</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A26" s="7" t="s">
-        <x:v>134</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B26" s="26"/>
       <x:c r="C26" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F26" s="27"/>
       <x:c r="I26" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K26" s="27"/>
       <x:c r="L26" s="12" t="s">
-        <x:v>135</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="M26" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N26" s="12" t="s">
-        <x:v>136</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A27" s="7" t="s">
-        <x:v>137</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B27" s="26"/>
       <x:c r="D27" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F27" s="27"/>
       <x:c r="I27" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K27" s="27"/>
       <x:c r="L27" s="12" t="s">
-        <x:v>138</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="M27" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N27" s="12" t="s">
-        <x:v>139</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A28" s="7" t="s">
-        <x:v>140</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B28" s="26"/>
       <x:c r="E28" s="28" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F28" s="27"/>
       <x:c r="I28" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K28" s="27"/>
       <x:c r="L28" s="12" t="s">
-        <x:v>141</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="M28" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N28" s="12" t="s">
-        <x:v>142</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A29" s="7" t="s">
-        <x:v>143</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B29" s="26"/>
       <x:c r="D29" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F29" s="27"/>
       <x:c r="I29" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K29" s="27"/>
       <x:c r="L29" s="12" t="s">
-        <x:v>144</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="M29" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N29" s="12" t="s">
-        <x:v>145</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A30" s="7" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B30" s="26"/>
       <x:c r="D30" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F30" s="27"/>
       <x:c r="I30" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K30" s="27"/>
       <x:c r="L30" s="12" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="M30" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N30" s="12" t="s">
-        <x:v>145</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A31" s="7" t="s">
-        <x:v>148</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B31" s="26"/>
       <x:c r="D31" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F31" s="27"/>
       <x:c r="I31" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K31" s="27"/>
       <x:c r="L31" s="12" t="s">
-        <x:v>149</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="M31" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N31" s="12" t="s">
-        <x:v>150</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A32" s="7" t="s">
-        <x:v>151</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B32" s="26"/>
       <x:c r="D32" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F32" s="27"/>
       <x:c r="I32" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K32" s="27"/>
       <x:c r="L32" s="12" t="s">
-        <x:v>152</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="M32" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N32" s="12" t="s">
-        <x:v>153</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A33" s="7" t="s">
-        <x:v>154</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B33" s="26"/>
       <x:c r="D33" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F33" s="27"/>
       <x:c r="I33" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K33" s="27"/>
       <x:c r="L33" s="12" t="s">
-        <x:v>155</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="M33" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N33" s="12" t="s">
-        <x:v>156</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A34" s="7" t="s">
-        <x:v>157</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B34" s="26"/>
       <x:c r="D34" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F34" s="27"/>
       <x:c r="I34" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K34" s="27"/>
       <x:c r="L34" s="12" t="s">
-        <x:v>158</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M34" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N34" s="12" t="s">
-        <x:v>159</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A35" s="7" t="s">
-        <x:v>160</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B35" s="26"/>
       <x:c r="D35" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F35" s="27"/>
       <x:c r="I35" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K35" s="27"/>
       <x:c r="L35" s="12" t="s">
-        <x:v>161</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="M35" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N35" s="12" t="s">
-        <x:v>162</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A36" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B36" s="26"/>
       <x:c r="D36" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F36" s="27"/>
       <x:c r="I36" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K36" s="27"/>
       <x:c r="L36" s="12" t="s">
-        <x:v>164</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="M36" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N36" s="12" t="s">
-        <x:v>145</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A37" s="7" t="s">
-        <x:v>165</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B37" s="26"/>
       <x:c r="D37" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F37" s="27"/>
       <x:c r="I37" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K37" s="27"/>
       <x:c r="L37" s="12" t="s">
-        <x:v>166</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="M37" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N37" s="12" t="s">
-        <x:v>150</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A38" s="7" t="s">
-        <x:v>167</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B38" s="26"/>
       <x:c r="D38" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F38" s="27"/>
       <x:c r="I38" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K38" s="27"/>
       <x:c r="L38" s="12" t="s">
-        <x:v>168</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M38" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N38" s="12" t="s">
-        <x:v>169</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A39" s="7" t="s">
-        <x:v>170</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B39" s="26"/>
       <x:c r="D39" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F39" s="27"/>
       <x:c r="I39" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K39" s="27"/>
       <x:c r="L39" s="12" t="s">
-        <x:v>171</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="M39" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N39" s="12" t="s">
-        <x:v>172</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A40" s="7" t="s">
-        <x:v>173</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B40" s="26"/>
       <x:c r="D40" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F40" s="27"/>
       <x:c r="I40" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K40" s="27"/>
       <x:c r="L40" s="12" t="s">
-        <x:v>174</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="M40" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N40" s="12" t="s">
-        <x:v>175</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A41" s="7" t="s">
-        <x:v>176</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B41" s="26"/>
       <x:c r="D41" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F41" s="27"/>
       <x:c r="I41" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K41" s="27"/>
       <x:c r="L41" s="12" t="s">
-        <x:v>177</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="M41" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N41" s="12" t="s">
-        <x:v>178</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A42" s="7" t="s">
-        <x:v>179</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B42" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F42" s="27"/>
       <x:c r="I42" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K42" s="27"/>
       <x:c r="L42" s="12" t="s">
-        <x:v>180</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="M42" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N42" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A43" s="7" t="s">
-        <x:v>182</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B43" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F43" s="27"/>
       <x:c r="H43" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K43" s="27"/>
       <x:c r="L43" s="12" t="s">
-        <x:v>183</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="M43" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N43" s="12" t="s">
-        <x:v>184</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A44" s="7" t="s">
-        <x:v>185</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B44" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F44" s="27"/>
       <x:c r="G44" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H44" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I44" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J44" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K44" s="31" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L44" s="12" t="s">
-        <x:v>186</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="M44" s="32" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N44" s="12" t="s">
-        <x:v>187</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A45" s="7" t="s">
-        <x:v>188</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B45" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F45" s="27"/>
       <x:c r="H45" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K45" s="27"/>
       <x:c r="L45" s="12" t="s">
-        <x:v>189</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="M45" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N45" s="12" t="s">
-        <x:v>187</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A46" s="7" t="s">
-        <x:v>190</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B46" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F46" s="27"/>
       <x:c r="H46" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K46" s="27"/>
       <x:c r="L46" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="M46" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N46" s="12" t="s">
-        <x:v>192</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A47" s="7" t="s">
-        <x:v>193</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B47" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F47" s="27"/>
       <x:c r="G47" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H47" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I47" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J47" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K47" s="31" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L47" s="12" t="s">
-        <x:v>194</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="M47" s="32" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N47" s="12" t="s">
-        <x:v>195</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A48" s="7" t="s">
-        <x:v>196</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B48" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F48" s="27"/>
       <x:c r="I48" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K48" s="27"/>
       <x:c r="L48" s="12" t="s">
-        <x:v>197</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="M48" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N48" s="12" t="s">
-        <x:v>195</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A49" s="7" t="s">
-        <x:v>198</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B49" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F49" s="27"/>
       <x:c r="I49" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K49" s="27"/>
       <x:c r="L49" s="12" t="s">
-        <x:v>199</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="M49" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N49" s="12" t="s">
-        <x:v>200</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A50" s="7" t="s">
-        <x:v>201</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B50" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F50" s="27"/>
       <x:c r="I50" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K50" s="27"/>
       <x:c r="L50" s="12" t="s">
-        <x:v>202</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="M50" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N50" s="12" t="s">
-        <x:v>203</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A51" s="7" t="s">
-        <x:v>204</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B51" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F51" s="27"/>
       <x:c r="I51" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K51" s="27"/>
       <x:c r="L51" s="12" t="s">
-        <x:v>205</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="M51" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N51" s="12" t="s">
-        <x:v>206</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A52" s="7" t="s">
-        <x:v>207</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B52" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F52" s="27"/>
       <x:c r="G52" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H52" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I52" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J52" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K52" s="31" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L52" s="12" t="s">
-        <x:v>208</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="M52" s="32" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N52" s="12" t="s">
-        <x:v>209</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A53" s="7" t="s">
-        <x:v>210</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B53" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F53" s="27"/>
       <x:c r="G53" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H53" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I53" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J53" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K53" s="31" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L53" s="12" t="s">
-        <x:v>211</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="M53" s="32" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N53" s="12" t="s">
-        <x:v>212</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A54" s="7" t="s">
-        <x:v>213</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B54" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F54" s="27"/>
       <x:c r="H54" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K54" s="27"/>
       <x:c r="L54" s="12" t="s">
-        <x:v>214</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="M54" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N54" s="12" t="s">
-        <x:v>215</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A55" s="7" t="s">
-        <x:v>216</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B55" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F55" s="27"/>
       <x:c r="H55" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K55" s="27"/>
       <x:c r="L55" s="12" t="s">
-        <x:v>217</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="M55" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N55" s="12" t="s">
-        <x:v>218</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A56" s="7" t="s">
-        <x:v>219</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B56" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F56" s="27"/>
       <x:c r="H56" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K56" s="27"/>
       <x:c r="L56" s="12" t="s">
-        <x:v>220</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="M56" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N56" s="12" t="s">
-        <x:v>221</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A57" s="7" t="s">
-        <x:v>222</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B57" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F57" s="27"/>
       <x:c r="H57" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K57" s="27"/>
       <x:c r="L57" s="12" t="s">
-        <x:v>223</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="M57" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N57" s="12" t="s">
-        <x:v>224</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A58" s="7" t="s">
-        <x:v>225</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B58" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F58" s="27"/>
       <x:c r="H58" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K58" s="27"/>
       <x:c r="L58" s="12" t="s">
-        <x:v>226</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="M58" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N58" s="12" t="s">
-        <x:v>227</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A59" s="7" t="s">
-        <x:v>228</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B59" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F59" s="27"/>
       <x:c r="G59" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H59" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I59" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J59" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K59" s="31" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L59" s="12" t="s">
-        <x:v>229</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="M59" s="32" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N59" s="12" t="s">
-        <x:v>230</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A60" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B60" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F60" s="27"/>
       <x:c r="H60" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K60" s="27"/>
       <x:c r="L60" s="12" t="s">
-        <x:v>232</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="M60" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N60" s="12" t="s">
-        <x:v>233</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A61" s="7" t="s">
-        <x:v>234</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B61" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F61" s="27"/>
       <x:c r="H61" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K61" s="27"/>
       <x:c r="L61" s="12" t="s">
-        <x:v>235</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="M61" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N61" s="12" t="s">
-        <x:v>236</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A62" s="7" t="s">
-        <x:v>237</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B62" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F62" s="27"/>
       <x:c r="G62" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H62" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I62" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J62" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K62" s="31" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L62" s="12" t="s">
-        <x:v>238</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="M62" s="32" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N62" s="12" t="s">
-        <x:v>239</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A63" s="7" t="s">
-        <x:v>240</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B63" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F63" s="27"/>
       <x:c r="H63" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K63" s="27"/>
       <x:c r="L63" s="12" t="s">
-        <x:v>241</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="M63" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N63" s="12" t="s">
-        <x:v>242</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A64" s="7" t="s">
-        <x:v>243</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B64" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F64" s="27"/>
       <x:c r="H64" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K64" s="27"/>
       <x:c r="L64" s="12" t="s">
-        <x:v>244</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="M64" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N64" s="12" t="s">
-        <x:v>245</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A65" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B65" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F65" s="27"/>
       <x:c r="G65" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H65" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I65" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J65" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K65" s="31" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L65" s="12" t="s">
-        <x:v>247</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="M65" s="32" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N65" s="12" t="s">
-        <x:v>248</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A66" s="7" t="s">
-        <x:v>249</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B66" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F66" s="27"/>
       <x:c r="G66" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H66" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I66" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J66" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K66" s="31" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L66" s="12" t="s">
-        <x:v>250</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="M66" s="32" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N66" s="12" t="s">
-        <x:v>251</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A67" s="7" t="s">
-        <x:v>252</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B67" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F67" s="27"/>
       <x:c r="H67" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K67" s="27"/>
       <x:c r="L67" s="12" t="s">
-        <x:v>253</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="M67" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N67" s="12" t="s">
-        <x:v>254</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A68" s="7" t="s">
-        <x:v>255</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B68" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F68" s="27"/>
       <x:c r="H68" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K68" s="27"/>
       <x:c r="L68" s="12" t="s">
-        <x:v>256</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="M68" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N68" s="12" t="s">
-        <x:v>257</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A69" s="7" t="s">
-        <x:v>258</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B69" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F69" s="27"/>
       <x:c r="H69" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K69" s="27"/>
       <x:c r="L69" s="12" t="s">
-        <x:v>259</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="M69" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N69" s="12" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A70" s="7" t="s">
-        <x:v>261</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B70" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F70" s="27"/>
       <x:c r="I70" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K70" s="27"/>
       <x:c r="L70" s="12" t="s">
-        <x:v>262</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="M70" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N70" s="12" t="s">
-        <x:v>263</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A71" s="7" t="s">
-        <x:v>264</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B71" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F71" s="27"/>
       <x:c r="I71" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K71" s="27"/>
       <x:c r="L71" s="12" t="s">
-        <x:v>265</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="M71" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N71" s="12" t="s">
-        <x:v>266</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A72" s="7" t="s">
-        <x:v>267</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B72" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F72" s="27"/>
       <x:c r="I72" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K72" s="27"/>
       <x:c r="L72" s="12" t="s">
-        <x:v>268</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="M72" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N72" s="12" t="s">
-        <x:v>269</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A73" s="7" t="s">
-        <x:v>270</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B73" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F73" s="27"/>
       <x:c r="I73" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K73" s="27"/>
       <x:c r="L73" s="12" t="s">
-        <x:v>271</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="M73" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N73" s="12" t="s">
-        <x:v>272</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A74" s="7" t="s">
-        <x:v>273</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B74" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F74" s="27"/>
       <x:c r="I74" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K74" s="27"/>
       <x:c r="L74" s="12" t="s">
-        <x:v>274</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M74" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N74" s="12" t="s">
-        <x:v>275</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A75" s="7" t="s">
-        <x:v>276</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B75" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F75" s="27"/>
       <x:c r="I75" s="34" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K75" s="27"/>
       <x:c r="L75" s="12" t="s">
-        <x:v>277</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="M75" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N75" s="12" t="s">
-        <x:v>278</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/tests/test1/output/main-stats.xlsx
+++ b/tests/test1/output/main-stats.xlsx
@@ -84,12 +84,6 @@
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 0</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 8</x:t>
-  </x:si>
-  <x:si>
     <x:t>scene1.ink:1</x:t>
   </x:si>
   <x:si>
@@ -99,9 +93,6 @@
     <x:t>50?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 4</x:t>
-  </x:si>
-  <x:si>
     <x:t>main.ink:27</x:t>
   </x:si>
   <x:si>
@@ -111,9 +102,6 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 7</x:t>
-  </x:si>
-  <x:si>
     <x:t>main.ink:44</x:t>
   </x:si>
   <x:si>
@@ -129,9 +117,6 @@
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 15</x:t>
-  </x:si>
-  <x:si>
     <x:t>main.ink:60</x:t>
   </x:si>
   <x:si>
@@ -141,9 +126,6 @@
     <x:t>20</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 5</x:t>
-  </x:si>
-  <x:si>
     <x:t>branches.ink:1</x:t>
   </x:si>
   <x:si>
@@ -153,19 +135,10 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 6</x:t>
-  </x:si>
-  <x:si>
     <x:t>branches.ink:61</x:t>
   </x:si>
   <x:si>
     <x:t>Non-Dink</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 1</x:t>
   </x:si>
   <x:si>
     <x:t>-</x:t>
@@ -1699,37 +1672,37 @@
       <x:c r="G2" s="10" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H2" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I2" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J2" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="K2" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L2" s="1" t="s">
-        <x:v>18</x:v>
+      <x:c r="H2" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I2" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K2" s="11">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L2" s="1">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M2" s="10">
         <x:v>8</x:v>
       </x:c>
       <x:c r="N2" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A3" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C3" s="13" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
         <x:v>16</x:v>
@@ -1741,39 +1714,39 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G3" s="10" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J3" s="14" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K3" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="L3" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H3" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I3" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J3" s="14">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K3" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L3" s="1">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M3" s="10">
         <x:v>4</x:v>
       </x:c>
       <x:c r="N3" s="12" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A4" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="13" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
         <x:v>16</x:v>
@@ -1785,33 +1758,33 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G4" s="10" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I4" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J4" s="14" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="K4" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="L4" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H4" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I4" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J4" s="14">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K4" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L4" s="1">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M4" s="10">
         <x:v>7</x:v>
       </x:c>
       <x:c r="N4" s="12" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A5" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="8" t="s">
         <x:v>16</x:v>
@@ -1820,45 +1793,45 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D5" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E5" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="G5" s="10" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I5" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J5" s="14" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="K5" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="L5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H5" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I5" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J5" s="14">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="K5" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L5" s="1">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M5" s="10">
         <x:v>15</x:v>
       </x:c>
       <x:c r="N5" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A6" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
         <x:v>16</x:v>
@@ -1873,36 +1846,36 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G6" s="10" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H6" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I6" s="13" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J6" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K6" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="L6" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H6" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I6" s="13">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J6" s="14">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K6" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L6" s="1">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M6" s="10">
         <x:v>20</x:v>
       </x:c>
       <x:c r="N6" s="12" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A7" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>16</x:v>
@@ -1917,93 +1890,93 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G7" s="10" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H7" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I7" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J7" s="14" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="K7" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="L7" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H7" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I7" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J7" s="14">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K7" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L7" s="1">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M7" s="10">
         <x:v>6</x:v>
       </x:c>
       <x:c r="N7" s="12" t="s">
-        <x:v>42</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A8" s="15" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B8" s="16" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C8" s="17" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D8" s="17" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E8" s="17" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F8" s="17" t="s">
-        <x:v>23</x:v>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B8" s="16">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C8" s="17">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D8" s="17">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E8" s="17">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F8" s="17">
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G8" s="18">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M8" s="20" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N8" s="12"/>
     </x:row>
     <x:row r="9" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A9" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B9" s="21" t="s">
-        <x:v>48</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C9" s="22" t="s">
-        <x:v>49</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D9" s="22" t="s">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="22" t="s">
-        <x:v>50</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F9" s="22" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="G9" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H9" s="22">
         <x:v>0</x:v>
@@ -2026,6 +1999,9 @@
       <x:c r="N9" s="12"/>
     </x:row>
   </x:sheetData>
+  <x:ignoredErrors>
+    <x:ignoredError sqref="A1:XFD1048576" numberStoredAsText="1"/>
+  </x:ignoredErrors>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -2060,30 +2036,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>53</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>54</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D1" s="23" t="s">
-        <x:v>55</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E1" s="23" t="s">
-        <x:v>56</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F1" s="23" t="s">
-        <x:v>57</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A2" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B2" s="12" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C2" s="12">
         <x:v>18</x:v>
@@ -2100,7 +2076,7 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A3" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C3" s="12">
         <x:v>2</x:v>
@@ -2117,10 +2093,10 @@
     </x:row>
     <x:row r="4" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A4" s="7" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B4" s="12" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C4" s="12">
         <x:v>12</x:v>
@@ -2137,7 +2113,7 @@
     </x:row>
     <x:row r="5" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A5" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="12">
         <x:v>0</x:v>
@@ -2154,7 +2130,7 @@
     </x:row>
     <x:row r="6" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A6" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C6" s="12">
         <x:v>20</x:v>
@@ -2212,7 +2188,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:14" ht="27" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
         <x:v>1</x:v>
@@ -2248,1819 +2224,1819 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="M1" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N1" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A2" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B2" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F2" s="27"/>
       <x:c r="J2" s="28" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K2" s="27"/>
       <x:c r="L2" s="12" t="s">
-        <x:v>68</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M2" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N2" s="12" t="s">
-        <x:v>69</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A3" s="7" t="s">
-        <x:v>70</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B3" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F3" s="27"/>
       <x:c r="J3" s="28" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K3" s="27"/>
       <x:c r="L3" s="12" t="s">
-        <x:v>71</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="M3" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N3" s="12" t="s">
-        <x:v>72</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A4" s="7" t="s">
-        <x:v>73</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B4" s="26"/>
       <x:c r="F4" s="29" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G4" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H4" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I4" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J4" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K4" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L4" s="12" t="s">
-        <x:v>74</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="M4" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N4" s="12" t="s">
-        <x:v>75</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A5" s="7" t="s">
-        <x:v>76</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B5" s="26"/>
       <x:c r="F5" s="29" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J5" s="28" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K5" s="27"/>
       <x:c r="L5" s="12" t="s">
-        <x:v>77</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M5" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N5" s="12" t="s">
-        <x:v>78</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A6" s="7" t="s">
-        <x:v>79</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B6" s="26"/>
       <x:c r="F6" s="29" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G6" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H6" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I6" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J6" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K6" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L6" s="12" t="s">
-        <x:v>80</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M6" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N6" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A7" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B7" s="26"/>
       <x:c r="F7" s="29" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J7" s="28" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K7" s="27"/>
       <x:c r="L7" s="12" t="s">
-        <x:v>83</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M7" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N7" s="12" t="s">
-        <x:v>84</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A8" s="7" t="s">
-        <x:v>85</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B8" s="26"/>
       <x:c r="F8" s="29" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G8" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H8" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I8" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J8" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K8" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L8" s="12" t="s">
-        <x:v>86</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="M8" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N8" s="12" t="s">
-        <x:v>87</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A9" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B9" s="26"/>
       <x:c r="F9" s="29" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J9" s="28" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K9" s="27"/>
       <x:c r="L9" s="12" t="s">
-        <x:v>89</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="M9" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N9" s="12" t="s">
-        <x:v>90</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A10" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B10" s="26"/>
       <x:c r="F10" s="29" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J10" s="28" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K10" s="27"/>
       <x:c r="L10" s="12" t="s">
-        <x:v>92</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M10" s="12" t="s">
-        <x:v>62</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N10" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A11" s="7" t="s">
-        <x:v>94</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B11" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F11" s="27"/>
       <x:c r="J11" s="28" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K11" s="27"/>
       <x:c r="L11" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M11" s="12" t="s">
-        <x:v>62</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N11" s="12" t="s">
-        <x:v>96</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A12" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B12" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F12" s="27"/>
       <x:c r="J12" s="28" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K12" s="27"/>
       <x:c r="L12" s="12" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="M12" s="12" t="s">
-        <x:v>62</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N12" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A13" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B13" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F13" s="27"/>
       <x:c r="G13" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H13" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I13" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J13" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K13" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L13" s="12" t="s">
-        <x:v>101</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M13" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N13" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A14" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B14" s="26"/>
       <x:c r="E14" s="28" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F14" s="27"/>
       <x:c r="G14" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H14" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I14" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J14" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K14" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L14" s="12" t="s">
-        <x:v>104</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M14" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N14" s="12" t="s">
-        <x:v>105</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A15" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B15" s="26"/>
       <x:c r="F15" s="29" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G15" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H15" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I15" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J15" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K15" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L15" s="12" t="s">
-        <x:v>107</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M15" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N15" s="12" t="s">
-        <x:v>108</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A16" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B16" s="26"/>
       <x:c r="C16" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F16" s="27"/>
       <x:c r="I16" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K16" s="27"/>
       <x:c r="L16" s="12" t="s">
-        <x:v>110</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M16" s="12" t="s">
-        <x:v>60</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N16" s="12" t="s">
-        <x:v>111</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A17" s="7" t="s">
-        <x:v>112</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B17" s="26"/>
       <x:c r="C17" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F17" s="27"/>
       <x:c r="I17" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K17" s="27"/>
       <x:c r="L17" s="12" t="s">
-        <x:v>113</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M17" s="12" t="s">
-        <x:v>60</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N17" s="12" t="s">
-        <x:v>114</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A18" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B18" s="26"/>
       <x:c r="C18" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F18" s="27"/>
       <x:c r="I18" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K18" s="27"/>
       <x:c r="L18" s="12" t="s">
-        <x:v>116</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M18" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N18" s="12" t="s">
-        <x:v>117</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B19" s="26"/>
       <x:c r="C19" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F19" s="27"/>
       <x:c r="I19" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K19" s="27"/>
       <x:c r="L19" s="12" t="s">
-        <x:v>119</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M19" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N19" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A20" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B20" s="26"/>
       <x:c r="C20" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F20" s="27"/>
       <x:c r="I20" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K20" s="27"/>
       <x:c r="L20" s="12" t="s">
-        <x:v>122</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="M20" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N20" s="12" t="s">
-        <x:v>123</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A21" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B21" s="26"/>
       <x:c r="C21" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F21" s="27"/>
       <x:c r="I21" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K21" s="27"/>
       <x:c r="L21" s="12" t="s">
-        <x:v>125</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="M21" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N21" s="12" t="s">
-        <x:v>126</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A22" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B22" s="26"/>
       <x:c r="C22" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F22" s="27"/>
       <x:c r="I22" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K22" s="27"/>
       <x:c r="L22" s="12" t="s">
-        <x:v>128</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="M22" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N22" s="12" t="s">
-        <x:v>129</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A23" s="7" t="s">
-        <x:v>130</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B23" s="26"/>
       <x:c r="C23" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F23" s="27"/>
       <x:c r="I23" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K23" s="27"/>
       <x:c r="L23" s="12" t="s">
-        <x:v>131</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="M23" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N23" s="12" t="s">
-        <x:v>132</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A24" s="7" t="s">
-        <x:v>133</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B24" s="26"/>
       <x:c r="C24" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F24" s="27"/>
       <x:c r="I24" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K24" s="27"/>
       <x:c r="L24" s="12" t="s">
-        <x:v>134</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="M24" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N24" s="12" t="s">
-        <x:v>135</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A25" s="7" t="s">
-        <x:v>136</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B25" s="26"/>
       <x:c r="C25" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F25" s="27"/>
       <x:c r="I25" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K25" s="27"/>
       <x:c r="L25" s="12" t="s">
-        <x:v>137</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="M25" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N25" s="12" t="s">
-        <x:v>138</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A26" s="7" t="s">
-        <x:v>139</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B26" s="26"/>
       <x:c r="C26" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F26" s="27"/>
       <x:c r="I26" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K26" s="27"/>
       <x:c r="L26" s="12" t="s">
-        <x:v>140</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="M26" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N26" s="12" t="s">
-        <x:v>141</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A27" s="7" t="s">
-        <x:v>142</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B27" s="26"/>
       <x:c r="D27" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F27" s="27"/>
       <x:c r="I27" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K27" s="27"/>
       <x:c r="L27" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M27" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N27" s="12" t="s">
-        <x:v>144</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A28" s="7" t="s">
-        <x:v>145</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B28" s="26"/>
       <x:c r="E28" s="28" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F28" s="27"/>
       <x:c r="I28" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K28" s="27"/>
       <x:c r="L28" s="12" t="s">
-        <x:v>146</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="M28" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N28" s="12" t="s">
-        <x:v>147</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A29" s="7" t="s">
-        <x:v>148</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B29" s="26"/>
       <x:c r="D29" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F29" s="27"/>
       <x:c r="I29" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K29" s="27"/>
       <x:c r="L29" s="12" t="s">
-        <x:v>149</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="M29" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N29" s="12" t="s">
-        <x:v>150</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A30" s="7" t="s">
-        <x:v>151</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B30" s="26"/>
       <x:c r="D30" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F30" s="27"/>
       <x:c r="I30" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K30" s="27"/>
       <x:c r="L30" s="12" t="s">
-        <x:v>152</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="M30" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N30" s="12" t="s">
-        <x:v>150</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A31" s="7" t="s">
-        <x:v>153</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B31" s="26"/>
       <x:c r="D31" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F31" s="27"/>
       <x:c r="I31" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K31" s="27"/>
       <x:c r="L31" s="12" t="s">
-        <x:v>154</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="M31" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N31" s="12" t="s">
-        <x:v>155</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A32" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B32" s="26"/>
       <x:c r="D32" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F32" s="27"/>
       <x:c r="I32" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K32" s="27"/>
       <x:c r="L32" s="12" t="s">
-        <x:v>157</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="M32" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N32" s="12" t="s">
-        <x:v>158</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A33" s="7" t="s">
-        <x:v>159</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B33" s="26"/>
       <x:c r="D33" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F33" s="27"/>
       <x:c r="I33" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K33" s="27"/>
       <x:c r="L33" s="12" t="s">
-        <x:v>160</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="M33" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N33" s="12" t="s">
-        <x:v>161</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A34" s="7" t="s">
-        <x:v>162</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B34" s="26"/>
       <x:c r="D34" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F34" s="27"/>
       <x:c r="I34" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K34" s="27"/>
       <x:c r="L34" s="12" t="s">
-        <x:v>163</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="M34" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N34" s="12" t="s">
-        <x:v>164</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A35" s="7" t="s">
-        <x:v>165</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B35" s="26"/>
       <x:c r="D35" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F35" s="27"/>
       <x:c r="I35" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K35" s="27"/>
       <x:c r="L35" s="12" t="s">
-        <x:v>166</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="M35" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N35" s="12" t="s">
-        <x:v>167</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A36" s="7" t="s">
-        <x:v>168</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B36" s="26"/>
       <x:c r="D36" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F36" s="27"/>
       <x:c r="I36" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K36" s="27"/>
       <x:c r="L36" s="12" t="s">
-        <x:v>169</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="M36" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N36" s="12" t="s">
-        <x:v>150</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A37" s="7" t="s">
-        <x:v>170</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B37" s="26"/>
       <x:c r="D37" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F37" s="27"/>
       <x:c r="I37" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K37" s="27"/>
       <x:c r="L37" s="12" t="s">
-        <x:v>171</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="M37" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N37" s="12" t="s">
-        <x:v>155</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A38" s="7" t="s">
-        <x:v>172</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B38" s="26"/>
       <x:c r="D38" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F38" s="27"/>
       <x:c r="I38" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K38" s="27"/>
       <x:c r="L38" s="12" t="s">
-        <x:v>173</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="M38" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N38" s="12" t="s">
-        <x:v>174</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A39" s="7" t="s">
-        <x:v>175</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B39" s="26"/>
       <x:c r="D39" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F39" s="27"/>
       <x:c r="I39" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K39" s="27"/>
       <x:c r="L39" s="12" t="s">
-        <x:v>176</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="M39" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N39" s="12" t="s">
-        <x:v>177</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A40" s="7" t="s">
-        <x:v>178</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B40" s="26"/>
       <x:c r="D40" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F40" s="27"/>
       <x:c r="I40" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K40" s="27"/>
       <x:c r="L40" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="M40" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N40" s="12" t="s">
-        <x:v>180</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A41" s="7" t="s">
-        <x:v>181</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B41" s="26"/>
       <x:c r="D41" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F41" s="27"/>
       <x:c r="I41" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K41" s="27"/>
       <x:c r="L41" s="12" t="s">
-        <x:v>182</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M41" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N41" s="12" t="s">
-        <x:v>183</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A42" s="7" t="s">
-        <x:v>184</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B42" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F42" s="27"/>
       <x:c r="I42" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K42" s="27"/>
       <x:c r="L42" s="12" t="s">
-        <x:v>185</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="M42" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N42" s="12" t="s">
-        <x:v>186</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A43" s="7" t="s">
-        <x:v>187</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B43" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F43" s="27"/>
       <x:c r="H43" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K43" s="27"/>
       <x:c r="L43" s="12" t="s">
-        <x:v>188</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="M43" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N43" s="12" t="s">
-        <x:v>189</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A44" s="7" t="s">
-        <x:v>190</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B44" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F44" s="27"/>
       <x:c r="G44" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H44" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I44" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J44" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K44" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L44" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="M44" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N44" s="12" t="s">
-        <x:v>192</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A45" s="7" t="s">
-        <x:v>193</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B45" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F45" s="27"/>
       <x:c r="H45" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K45" s="27"/>
       <x:c r="L45" s="12" t="s">
-        <x:v>194</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="M45" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N45" s="12" t="s">
-        <x:v>192</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A46" s="7" t="s">
-        <x:v>195</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B46" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F46" s="27"/>
       <x:c r="H46" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K46" s="27"/>
       <x:c r="L46" s="12" t="s">
-        <x:v>196</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="M46" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N46" s="12" t="s">
-        <x:v>197</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A47" s="7" t="s">
-        <x:v>198</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B47" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F47" s="27"/>
       <x:c r="G47" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H47" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I47" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J47" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K47" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L47" s="12" t="s">
-        <x:v>199</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="M47" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N47" s="12" t="s">
-        <x:v>200</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A48" s="7" t="s">
-        <x:v>201</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B48" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F48" s="27"/>
       <x:c r="I48" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K48" s="27"/>
       <x:c r="L48" s="12" t="s">
-        <x:v>202</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="M48" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N48" s="12" t="s">
-        <x:v>200</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A49" s="7" t="s">
-        <x:v>203</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B49" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F49" s="27"/>
       <x:c r="I49" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K49" s="27"/>
       <x:c r="L49" s="12" t="s">
-        <x:v>204</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="M49" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N49" s="12" t="s">
-        <x:v>205</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A50" s="7" t="s">
-        <x:v>206</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B50" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F50" s="27"/>
       <x:c r="I50" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K50" s="27"/>
       <x:c r="L50" s="12" t="s">
-        <x:v>207</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="M50" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N50" s="12" t="s">
-        <x:v>208</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A51" s="7" t="s">
-        <x:v>209</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B51" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F51" s="27"/>
       <x:c r="I51" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K51" s="27"/>
       <x:c r="L51" s="12" t="s">
-        <x:v>210</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="M51" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N51" s="12" t="s">
-        <x:v>211</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A52" s="7" t="s">
-        <x:v>212</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B52" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F52" s="27"/>
       <x:c r="G52" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H52" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I52" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J52" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K52" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L52" s="12" t="s">
-        <x:v>213</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="M52" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N52" s="12" t="s">
-        <x:v>214</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A53" s="7" t="s">
-        <x:v>215</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B53" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F53" s="27"/>
       <x:c r="G53" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H53" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I53" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J53" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K53" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L53" s="12" t="s">
-        <x:v>216</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="M53" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N53" s="12" t="s">
-        <x:v>217</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A54" s="7" t="s">
-        <x:v>218</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B54" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F54" s="27"/>
       <x:c r="H54" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K54" s="27"/>
       <x:c r="L54" s="12" t="s">
-        <x:v>219</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="M54" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N54" s="12" t="s">
-        <x:v>220</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A55" s="7" t="s">
-        <x:v>221</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B55" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F55" s="27"/>
       <x:c r="H55" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K55" s="27"/>
       <x:c r="L55" s="12" t="s">
-        <x:v>222</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="M55" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N55" s="12" t="s">
-        <x:v>223</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A56" s="7" t="s">
-        <x:v>224</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B56" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F56" s="27"/>
       <x:c r="H56" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K56" s="27"/>
       <x:c r="L56" s="12" t="s">
-        <x:v>225</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="M56" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N56" s="12" t="s">
-        <x:v>226</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A57" s="7" t="s">
-        <x:v>227</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B57" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F57" s="27"/>
       <x:c r="H57" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K57" s="27"/>
       <x:c r="L57" s="12" t="s">
-        <x:v>228</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="M57" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N57" s="12" t="s">
-        <x:v>229</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A58" s="7" t="s">
-        <x:v>230</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B58" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F58" s="27"/>
       <x:c r="H58" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K58" s="27"/>
       <x:c r="L58" s="12" t="s">
-        <x:v>231</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="M58" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N58" s="12" t="s">
-        <x:v>232</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A59" s="7" t="s">
-        <x:v>233</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B59" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F59" s="27"/>
       <x:c r="G59" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H59" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I59" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J59" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K59" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L59" s="12" t="s">
-        <x:v>234</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="M59" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N59" s="12" t="s">
-        <x:v>235</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A60" s="7" t="s">
-        <x:v>236</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B60" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F60" s="27"/>
       <x:c r="H60" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K60" s="27"/>
       <x:c r="L60" s="12" t="s">
-        <x:v>237</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="M60" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N60" s="12" t="s">
-        <x:v>238</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A61" s="7" t="s">
-        <x:v>239</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B61" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F61" s="27"/>
       <x:c r="H61" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K61" s="27"/>
       <x:c r="L61" s="12" t="s">
-        <x:v>240</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="M61" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N61" s="12" t="s">
-        <x:v>241</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A62" s="7" t="s">
-        <x:v>242</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B62" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F62" s="27"/>
       <x:c r="G62" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H62" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I62" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J62" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K62" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L62" s="12" t="s">
-        <x:v>243</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="M62" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N62" s="12" t="s">
-        <x:v>244</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A63" s="7" t="s">
-        <x:v>245</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B63" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F63" s="27"/>
       <x:c r="H63" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K63" s="27"/>
       <x:c r="L63" s="12" t="s">
-        <x:v>246</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="M63" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N63" s="12" t="s">
-        <x:v>247</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A64" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B64" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F64" s="27"/>
       <x:c r="H64" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K64" s="27"/>
       <x:c r="L64" s="12" t="s">
-        <x:v>249</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="M64" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N64" s="12" t="s">
-        <x:v>250</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A65" s="7" t="s">
-        <x:v>251</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B65" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F65" s="27"/>
       <x:c r="G65" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H65" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I65" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J65" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K65" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L65" s="12" t="s">
-        <x:v>252</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="M65" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N65" s="12" t="s">
-        <x:v>253</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A66" s="7" t="s">
-        <x:v>254</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B66" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F66" s="27"/>
       <x:c r="G66" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H66" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I66" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J66" s="30" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K66" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L66" s="12" t="s">
-        <x:v>255</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="M66" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N66" s="12" t="s">
-        <x:v>256</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A67" s="7" t="s">
-        <x:v>257</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B67" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F67" s="27"/>
       <x:c r="H67" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K67" s="27"/>
       <x:c r="L67" s="12" t="s">
-        <x:v>258</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="M67" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N67" s="12" t="s">
-        <x:v>259</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A68" s="7" t="s">
-        <x:v>260</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B68" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F68" s="27"/>
       <x:c r="H68" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K68" s="27"/>
       <x:c r="L68" s="12" t="s">
-        <x:v>261</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="M68" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N68" s="12" t="s">
-        <x:v>262</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A69" s="7" t="s">
-        <x:v>263</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B69" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F69" s="27"/>
       <x:c r="H69" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K69" s="27"/>
       <x:c r="L69" s="12" t="s">
-        <x:v>264</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="M69" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N69" s="12" t="s">
-        <x:v>265</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A70" s="7" t="s">
-        <x:v>266</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B70" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F70" s="27"/>
       <x:c r="I70" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K70" s="27"/>
       <x:c r="L70" s="12" t="s">
-        <x:v>267</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="M70" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N70" s="12" t="s">
-        <x:v>268</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A71" s="7" t="s">
-        <x:v>269</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B71" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F71" s="27"/>
       <x:c r="I71" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K71" s="27"/>
       <x:c r="L71" s="12" t="s">
-        <x:v>270</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="M71" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N71" s="12" t="s">
-        <x:v>271</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A72" s="7" t="s">
-        <x:v>272</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B72" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F72" s="27"/>
       <x:c r="I72" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K72" s="27"/>
       <x:c r="L72" s="12" t="s">
-        <x:v>273</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="M72" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N72" s="12" t="s">
-        <x:v>274</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A73" s="7" t="s">
-        <x:v>275</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B73" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F73" s="27"/>
       <x:c r="I73" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K73" s="27"/>
       <x:c r="L73" s="12" t="s">
-        <x:v>276</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="M73" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N73" s="12" t="s">
-        <x:v>277</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A74" s="7" t="s">
-        <x:v>278</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B74" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F74" s="27"/>
       <x:c r="I74" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K74" s="27"/>
       <x:c r="L74" s="12" t="s">
-        <x:v>279</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="M74" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N74" s="12" t="s">
-        <x:v>280</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A75" s="7" t="s">
-        <x:v>281</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B75" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F75" s="27"/>
       <x:c r="I75" s="34" t="s">
-        <x:v>67</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K75" s="27"/>
       <x:c r="L75" s="12" t="s">
-        <x:v>282</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="M75" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N75" s="12" t="s">
-        <x:v>283</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/tests/test1/output/main-stats.xlsx
+++ b/tests/test1/output/main-stats.xlsx
@@ -1999,13 +1999,13 @@
       <x:c r="N9" s="12"/>
     </x:row>
   </x:sheetData>
-  <x:ignoredErrors>
-    <x:ignoredError sqref="A1:XFD1048576" numberStoredAsText="1"/>
-  </x:ignoredErrors>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
+  <x:ignoredErrors>
+    <x:ignoredError sqref="A1:XFD1048576" numberStoredAsText="1"/>
+  </x:ignoredErrors>
   <x:tableParts count="1">
     <x:tablePart r:id="rId7"/>
   </x:tableParts>

--- a/tests/test1/output/main-stats.xlsx
+++ b/tests/test1/output/main-stats.xlsx
@@ -72,54 +72,54 @@
     <x:t>Origin</x:t>
   </x:si>
   <x:si>
+    <x:t>TestScene</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Recording</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:60</x:t>
+  </x:si>
+  <x:si>
     <x:t>Scene1</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
+    <x:t>11</x:t>
   </x:si>
   <x:si>
     <x:t>scene1.ink:1</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScene</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Barks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Recording</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:60</x:t>
-  </x:si>
-  <x:si>
     <x:t>Branches</x:t>
   </x:si>
   <x:si>
@@ -156,7 +156,7 @@
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>120?</x:t>
+    <x:t>123?</x:t>
   </x:si>
   <x:si>
     <x:t>Character</x:t>
@@ -201,12 +201,255 @@
     <x:t>Text</x:t>
   </x:si>
   <x:si>
+    <x:t>main_Intro_FDAP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a test file.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Intro2_PCBU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAURA: This is an earlier line I am saying.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_16U4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a line I am saying.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_FF1T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is another line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_BQ1E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a loud line!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_IQIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glad that's over with!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_O037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_UWZ2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_1ZG8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_JFG1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_X291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Response to Bark 4.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_L2SX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_N07F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_7ZMT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a recording line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartA_U9ZN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a line hidden by a false clause.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartB_VPX8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartB_FH4U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartB_1RQS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is also a line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_JITN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a first line about monkeys.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_GUS9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a second line about monkeys.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_3VZB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a third monkey line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_A18G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a final monkey line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartD_UC9D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartD_08WO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_81AO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodbye!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_JY1W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seeya!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_QEM8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whoops!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_KABN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Responds.</x:t>
+  </x:si>
+  <x:si>
     <x:t>scene1_Scene1_Part1_S494</x:t>
   </x:si>
   <x:si>
-    <x:t>X</x:t>
-  </x:si>
-  <x:si>
     <x:t>scene1.ink:6</x:t>
   </x:si>
   <x:si>
@@ -276,10 +519,37 @@
     <x:t>Carry on then.</x:t>
   </x:si>
   <x:si>
+    <x:t>scene1_Scene1_Part4_P46B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scene1.ink:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trying dialogue here.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scene1_Scene1_Part4_4NZN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scene1.ink:34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>By George, I think it works!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scene1_Scene1_Part4_6IBF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scene1.ink:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trying dialogue with no line underneath.</x:t>
+  </x:si>
+  <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
   </x:si>
   <x:si>
-    <x:t>scene1.ink:34</x:t>
+    <x:t>scene1.ink:37</x:t>
   </x:si>
   <x:si>
     <x:t>Okay.</x:t>
@@ -288,7 +558,7 @@
     <x:t>scene1_Scene1_Right_WM69</x:t>
   </x:si>
   <x:si>
-    <x:t>scene1.ink:39</x:t>
+    <x:t>scene1.ink:42</x:t>
   </x:si>
   <x:si>
     <x:t>You sure you want to go right?</x:t>
@@ -297,7 +567,7 @@
     <x:t>scene1_Scene1_Left_MIM6</x:t>
   </x:si>
   <x:si>
-    <x:t>scene1.ink:44</x:t>
+    <x:t>scene1.ink:47</x:t>
   </x:si>
   <x:si>
     <x:t>You sure you want to go left?</x:t>
@@ -306,253 +576,10 @@
     <x:t>scene1_Scene1_OtherContent_FSDK</x:t>
   </x:si>
   <x:si>
-    <x:t>scene1.ink:48</x:t>
+    <x:t>scene1.ink:51</x:t>
   </x:si>
   <x:si>
     <x:t>This content is nothing at all to do with Dink!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Intro_FDAP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a test file.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Intro2_PCBU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAURA: This is an earlier line I am saying.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_16U4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a line I am saying.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_FF1T</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is another line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_BQ1E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a loud line!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_IQIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glad that's over with!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_O037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bark1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_UWZ2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bark2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_1ZG8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bark3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_JFG1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bark4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_X291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Response to Bark 4.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_L2SX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bark5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_N07F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bark6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_7ZMT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a recording line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartA_U9ZN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a line hidden by a false clause.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartB_VPX8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartB_FH4U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartB_1RQS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is also a line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartC_JITN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a first line about monkeys.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartC_GUS9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a second line about monkeys.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartC_3VZB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a third monkey line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartC_A18G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a final monkey line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartD_UC9D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartD_08WO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartE_81AO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodbye!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartE_JY1W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seeya!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartE_QEM8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Whoops!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartE_KABN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Responds.</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_41YM</x:t>
@@ -923,7 +950,12 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF33FF33"/>
+        <x:fgColor rgb="FFFF3333"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFF8833"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -933,12 +965,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF3333"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF8833"/>
+        <x:fgColor rgb="FF33FF33"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -1061,7 +1088,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -1174,18 +1201,14 @@
       <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -1198,11 +1221,15 @@
       <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1273,8 +1300,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N75" totalsRowShown="0">
-  <x:autoFilter ref="A1:N75"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N78" totalsRowShown="0">
+  <x:autoFilter ref="A1:N78"/>
   <x:tableColumns count="14">
     <x:tableColumn id="1" name="Line ID" dataDxfId="1"/>
     <x:tableColumn id="2" name="Writing_x000a_Unknown" dataDxfId="3"/>
@@ -1657,20 +1684,20 @@
       <x:c r="B2" s="8" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="C2" s="9" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" s="10" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F2" s="9" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G2" s="10" t="s">
-        <x:v>17</x:v>
       </x:c>
       <x:c r="H2" s="1">
         <x:v>0</x:v>
@@ -1678,43 +1705,43 @@
       <x:c r="I2" s="1">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J2" s="1">
+      <x:c r="J2" s="11">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K2" s="1">
         <x:v>0</x:v>
-      </x:c>
-      <x:c r="K2" s="11">
-        <x:v>8</x:v>
       </x:c>
       <x:c r="L2" s="1">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M2" s="10">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N2" s="12" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A3" s="7" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B3" s="8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C3" s="9" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B3" s="8" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C3" s="13" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G3" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H3" s="1">
         <x:v>0</x:v>
@@ -1722,8 +1749,8 @@
       <x:c r="I3" s="1">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J3" s="14">
-        <x:v>4</x:v>
+      <x:c r="J3" s="11">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K3" s="1">
         <x:v>0</x:v>
@@ -1732,33 +1759,33 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M3" s="10">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N3" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A4" s="7" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B4" s="8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D4" s="11" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B4" s="8" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="13" t="s">
+      <x:c r="E4" s="13" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G4" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H4" s="1">
         <x:v>0</x:v>
@@ -1766,8 +1793,8 @@
       <x:c r="I4" s="1">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J4" s="14">
-        <x:v>7</x:v>
+      <x:c r="J4" s="11">
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K4" s="1">
         <x:v>0</x:v>
@@ -1776,30 +1803,30 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M4" s="10">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N4" s="12" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A5" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B5" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D5" s="14" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E5" s="11" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F5" s="14" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G5" s="10" t="s">
         <x:v>28</x:v>
@@ -1807,20 +1834,20 @@
       <x:c r="H5" s="1">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I5" s="1">
+      <x:c r="I5" s="9">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J5" s="1">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J5" s="14">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="K5" s="1">
-        <x:v>0</x:v>
+      <x:c r="K5" s="13">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L5" s="1">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M5" s="10">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="N5" s="12" t="s">
         <x:v>29</x:v>
@@ -1834,16 +1861,16 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G6" s="10" t="s">
         <x:v>31</x:v>
@@ -1851,10 +1878,10 @@
       <x:c r="H6" s="1">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I6" s="13">
+      <x:c r="I6" s="9">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="J6" s="14">
+      <x:c r="J6" s="11">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K6" s="1">
@@ -1878,16 +1905,16 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G7" s="10" t="s">
         <x:v>34</x:v>
@@ -1898,7 +1925,7 @@
       <x:c r="I7" s="1">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J7" s="14">
+      <x:c r="J7" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K7" s="1">
@@ -1967,13 +1994,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D9" s="22" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E9" s="22" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="F9" s="22" t="s">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G9" s="10" t="s">
         <x:v>42</x:v>
@@ -1982,7 +2009,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I9" s="22">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J9" s="22">
         <x:v>37</x:v>
@@ -1994,7 +2021,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M9" s="10">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N9" s="12"/>
     </x:row>
@@ -2065,13 +2092,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D2" s="12">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2" s="12">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F2" s="24">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="13.5" customHeight="1">
@@ -2119,13 +2146,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D5" s="12">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E5" s="12">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F5" s="24">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="13.5" customHeight="1">
@@ -2161,7 +2188,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N75"/>
+  <x:dimension ref="A1:N78"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
@@ -2234,19 +2261,31 @@
       <x:c r="A2" s="7" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="B2" s="26" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F2" s="27"/>
-      <x:c r="J2" s="28" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K2" s="27"/>
+      <x:c r="B2" s="26"/>
+      <x:c r="E2" s="27" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F2" s="28"/>
+      <x:c r="G2" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H2" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I2" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J2" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K2" s="30" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="L2" s="12" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="M2" s="12" t="s">
-        <x:v>49</x:v>
+      <x:c r="M2" s="31" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N2" s="12" t="s">
         <x:v>60</x:v>
@@ -2256,19 +2295,30 @@
       <x:c r="A3" s="7" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="B3" s="26" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F3" s="27"/>
-      <x:c r="J3" s="28" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K3" s="27"/>
+      <x:c r="B3" s="26"/>
+      <x:c r="F3" s="32" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G3" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H3" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I3" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J3" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K3" s="30" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="L3" s="12" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="M3" s="12" t="s">
-        <x:v>52</x:v>
+      <x:c r="M3" s="31" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N3" s="12" t="s">
         <x:v>63</x:v>
@@ -2279,29 +2329,19 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B4" s="26"/>
-      <x:c r="F4" s="29" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G4" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H4" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I4" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J4" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K4" s="31" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="C4" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F4" s="28"/>
+      <x:c r="I4" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K4" s="28"/>
       <x:c r="L4" s="12" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="M4" s="32" t="s">
-        <x:v>37</x:v>
+      <x:c r="M4" s="12" t="s">
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N4" s="12" t="s">
         <x:v>66</x:v>
@@ -2312,18 +2352,19 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B5" s="26"/>
-      <x:c r="F5" s="29" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="J5" s="28" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K5" s="27"/>
+      <x:c r="C5" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F5" s="28"/>
+      <x:c r="I5" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K5" s="28"/>
       <x:c r="L5" s="12" t="s">
         <x:v>68</x:v>
       </x:c>
       <x:c r="M5" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N5" s="12" t="s">
         <x:v>69</x:v>
@@ -2334,29 +2375,19 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="B6" s="26"/>
-      <x:c r="F6" s="29" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G6" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H6" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I6" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J6" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K6" s="31" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="C6" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F6" s="28"/>
+      <x:c r="I6" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K6" s="28"/>
       <x:c r="L6" s="12" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="M6" s="32" t="s">
-        <x:v>37</x:v>
+      <x:c r="M6" s="12" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N6" s="12" t="s">
         <x:v>72</x:v>
@@ -2367,13 +2398,14 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B7" s="26"/>
-      <x:c r="F7" s="29" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="J7" s="28" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K7" s="27"/>
+      <x:c r="C7" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F7" s="28"/>
+      <x:c r="I7" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K7" s="28"/>
       <x:c r="L7" s="12" t="s">
         <x:v>74</x:v>
       </x:c>
@@ -2389,29 +2421,19 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B8" s="26"/>
-      <x:c r="F8" s="29" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G8" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H8" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I8" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J8" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K8" s="31" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="C8" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F8" s="28"/>
+      <x:c r="I8" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K8" s="28"/>
       <x:c r="L8" s="12" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="M8" s="32" t="s">
-        <x:v>37</x:v>
+      <x:c r="M8" s="12" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N8" s="12" t="s">
         <x:v>78</x:v>
@@ -2422,13 +2444,14 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B9" s="26"/>
-      <x:c r="F9" s="29" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="J9" s="28" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K9" s="27"/>
+      <x:c r="C9" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F9" s="28"/>
+      <x:c r="I9" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K9" s="28"/>
       <x:c r="L9" s="12" t="s">
         <x:v>80</x:v>
       </x:c>
@@ -2444,18 +2467,19 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B10" s="26"/>
-      <x:c r="F10" s="29" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="J10" s="28" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K10" s="27"/>
+      <x:c r="C10" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F10" s="28"/>
+      <x:c r="I10" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K10" s="28"/>
       <x:c r="L10" s="12" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="M10" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N10" s="12" t="s">
         <x:v>84</x:v>
@@ -2465,19 +2489,20 @@
       <x:c r="A11" s="7" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="B11" s="26" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F11" s="27"/>
-      <x:c r="J11" s="28" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K11" s="27"/>
+      <x:c r="B11" s="26"/>
+      <x:c r="C11" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F11" s="28"/>
+      <x:c r="I11" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K11" s="28"/>
       <x:c r="L11" s="12" t="s">
         <x:v>86</x:v>
       </x:c>
       <x:c r="M11" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N11" s="12" t="s">
         <x:v>87</x:v>
@@ -2487,19 +2512,20 @@
       <x:c r="A12" s="7" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="B12" s="26" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F12" s="27"/>
-      <x:c r="J12" s="28" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K12" s="27"/>
+      <x:c r="B12" s="26"/>
+      <x:c r="C12" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F12" s="28"/>
+      <x:c r="I12" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K12" s="28"/>
       <x:c r="L12" s="12" t="s">
         <x:v>89</x:v>
       </x:c>
       <x:c r="M12" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N12" s="12" t="s">
         <x:v>90</x:v>
@@ -2509,30 +2535,20 @@
       <x:c r="A13" s="7" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="B13" s="26" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F13" s="27"/>
-      <x:c r="G13" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H13" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I13" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J13" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K13" s="31" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="B13" s="26"/>
+      <x:c r="C13" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F13" s="28"/>
+      <x:c r="I13" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K13" s="28"/>
       <x:c r="L13" s="12" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="M13" s="32" t="s">
-        <x:v>37</x:v>
+      <x:c r="M13" s="12" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N13" s="12" t="s">
         <x:v>93</x:v>
@@ -2543,30 +2559,19 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B14" s="26"/>
-      <x:c r="E14" s="28" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F14" s="27"/>
-      <x:c r="G14" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H14" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I14" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J14" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K14" s="31" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="C14" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F14" s="28"/>
+      <x:c r="I14" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K14" s="28"/>
       <x:c r="L14" s="12" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="M14" s="32" t="s">
-        <x:v>37</x:v>
+      <x:c r="M14" s="12" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N14" s="12" t="s">
         <x:v>96</x:v>
@@ -2577,29 +2582,19 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B15" s="26"/>
-      <x:c r="F15" s="29" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G15" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H15" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I15" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J15" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K15" s="31" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="D15" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F15" s="28"/>
+      <x:c r="I15" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K15" s="28"/>
       <x:c r="L15" s="12" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="M15" s="32" t="s">
-        <x:v>37</x:v>
+      <x:c r="M15" s="12" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N15" s="12" t="s">
         <x:v>99</x:v>
@@ -2610,19 +2605,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B16" s="26"/>
-      <x:c r="C16" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F16" s="27"/>
+      <x:c r="E16" s="27" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F16" s="28"/>
       <x:c r="I16" s="34" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K16" s="27"/>
+      <x:c r="K16" s="28"/>
       <x:c r="L16" s="12" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="M16" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N16" s="12" t="s">
         <x:v>102</x:v>
@@ -2633,19 +2628,19 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B17" s="26"/>
-      <x:c r="C17" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F17" s="27"/>
+      <x:c r="D17" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F17" s="28"/>
       <x:c r="I17" s="34" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K17" s="27"/>
+      <x:c r="K17" s="28"/>
       <x:c r="L17" s="12" t="s">
         <x:v>104</x:v>
       </x:c>
       <x:c r="M17" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N17" s="12" t="s">
         <x:v>105</x:v>
@@ -2656,14 +2651,14 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B18" s="26"/>
-      <x:c r="C18" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F18" s="27"/>
+      <x:c r="D18" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F18" s="28"/>
       <x:c r="I18" s="34" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K18" s="27"/>
+      <x:c r="K18" s="28"/>
       <x:c r="L18" s="12" t="s">
         <x:v>107</x:v>
       </x:c>
@@ -2671,277 +2666,276 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N18" s="12" t="s">
-        <x:v>108</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B19" s="26"/>
+      <x:c r="D19" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F19" s="28"/>
+      <x:c r="I19" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K19" s="28"/>
+      <x:c r="L19" s="12" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="B19" s="26"/>
-      <x:c r="C19" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F19" s="27"/>
-      <x:c r="I19" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K19" s="27"/>
-      <x:c r="L19" s="12" t="s">
-        <x:v>110</x:v>
       </x:c>
       <x:c r="M19" s="12" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="N19" s="12" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A20" s="7" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B20" s="26"/>
+      <x:c r="D20" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F20" s="28"/>
+      <x:c r="I20" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K20" s="28"/>
+      <x:c r="L20" s="12" t="s">
         <x:v>112</x:v>
-      </x:c>
-      <x:c r="B20" s="26"/>
-      <x:c r="C20" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F20" s="27"/>
-      <x:c r="I20" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K20" s="27"/>
-      <x:c r="L20" s="12" t="s">
-        <x:v>113</x:v>
       </x:c>
       <x:c r="M20" s="12" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="N20" s="12" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A21" s="7" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B21" s="26"/>
+      <x:c r="D21" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F21" s="28"/>
+      <x:c r="I21" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K21" s="28"/>
+      <x:c r="L21" s="12" t="s">
         <x:v>115</x:v>
-      </x:c>
-      <x:c r="B21" s="26"/>
-      <x:c r="C21" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F21" s="27"/>
-      <x:c r="I21" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K21" s="27"/>
-      <x:c r="L21" s="12" t="s">
-        <x:v>116</x:v>
       </x:c>
       <x:c r="M21" s="12" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="N21" s="12" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A22" s="7" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B22" s="26"/>
+      <x:c r="D22" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F22" s="28"/>
+      <x:c r="I22" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K22" s="28"/>
+      <x:c r="L22" s="12" t="s">
         <x:v>118</x:v>
-      </x:c>
-      <x:c r="B22" s="26"/>
-      <x:c r="C22" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F22" s="27"/>
-      <x:c r="I22" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K22" s="27"/>
-      <x:c r="L22" s="12" t="s">
-        <x:v>119</x:v>
       </x:c>
       <x:c r="M22" s="12" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="N22" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A23" s="7" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B23" s="26"/>
+      <x:c r="D23" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F23" s="28"/>
+      <x:c r="I23" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K23" s="28"/>
+      <x:c r="L23" s="12" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="B23" s="26"/>
-      <x:c r="C23" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F23" s="27"/>
-      <x:c r="I23" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K23" s="27"/>
-      <x:c r="L23" s="12" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="M23" s="12" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="N23" s="12" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A24" s="7" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B24" s="26"/>
+      <x:c r="D24" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F24" s="28"/>
+      <x:c r="I24" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K24" s="28"/>
+      <x:c r="L24" s="12" t="s">
         <x:v>124</x:v>
-      </x:c>
-      <x:c r="B24" s="26"/>
-      <x:c r="C24" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F24" s="27"/>
-      <x:c r="I24" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K24" s="27"/>
-      <x:c r="L24" s="12" t="s">
-        <x:v>125</x:v>
       </x:c>
       <x:c r="M24" s="12" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="N24" s="12" t="s">
-        <x:v>126</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A25" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B25" s="26"/>
-      <x:c r="C25" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F25" s="27"/>
+      <x:c r="D25" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F25" s="28"/>
       <x:c r="I25" s="34" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K25" s="27"/>
+      <x:c r="K25" s="28"/>
       <x:c r="L25" s="12" t="s">
-        <x:v>128</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="M25" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N25" s="12" t="s">
-        <x:v>129</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A26" s="7" t="s">
-        <x:v>130</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B26" s="26"/>
-      <x:c r="C26" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F26" s="27"/>
+      <x:c r="D26" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F26" s="28"/>
       <x:c r="I26" s="34" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K26" s="27"/>
+      <x:c r="K26" s="28"/>
       <x:c r="L26" s="12" t="s">
-        <x:v>131</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="M26" s="12" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="N26" s="12" t="s">
-        <x:v>132</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A27" s="7" t="s">
-        <x:v>133</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B27" s="26"/>
       <x:c r="D27" s="34" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F27" s="27"/>
+      <x:c r="F27" s="28"/>
       <x:c r="I27" s="34" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K27" s="27"/>
+      <x:c r="K27" s="28"/>
       <x:c r="L27" s="12" t="s">
-        <x:v>134</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="M27" s="12" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="N27" s="12" t="s">
-        <x:v>135</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A28" s="7" t="s">
-        <x:v>136</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B28" s="26"/>
-      <x:c r="E28" s="28" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F28" s="27"/>
+      <x:c r="D28" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F28" s="28"/>
       <x:c r="I28" s="34" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K28" s="27"/>
+      <x:c r="K28" s="28"/>
       <x:c r="L28" s="12" t="s">
-        <x:v>137</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M28" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N28" s="12" t="s">
-        <x:v>138</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A29" s="7" t="s">
-        <x:v>139</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B29" s="26"/>
       <x:c r="D29" s="34" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F29" s="27"/>
+      <x:c r="F29" s="28"/>
       <x:c r="I29" s="34" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K29" s="27"/>
+      <x:c r="K29" s="28"/>
       <x:c r="L29" s="12" t="s">
-        <x:v>140</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="M29" s="12" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="N29" s="12" t="s">
-        <x:v>141</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A30" s="7" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="B30" s="26"/>
-      <x:c r="D30" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F30" s="27"/>
-      <x:c r="I30" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K30" s="27"/>
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B30" s="26" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F30" s="28"/>
+      <x:c r="J30" s="27" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K30" s="28"/>
       <x:c r="L30" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="M30" s="12" t="s">
         <x:v>49</x:v>
@@ -2952,163 +2946,189 @@
     </x:row>
     <x:row r="31" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A31" s="7" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B31" s="26" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F31" s="28"/>
+      <x:c r="J31" s="27" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K31" s="28"/>
+      <x:c r="L31" s="12" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="M31" s="12" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N31" s="12" t="s">
         <x:v>144</x:v>
-      </x:c>
-      <x:c r="B31" s="26"/>
-      <x:c r="D31" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F31" s="27"/>
-      <x:c r="I31" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K31" s="27"/>
-      <x:c r="L31" s="12" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="M31" s="12" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="N31" s="12" t="s">
-        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A32" s="7" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B32" s="26"/>
+      <x:c r="F32" s="32" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G32" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H32" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I32" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J32" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K32" s="30" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L32" s="12" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="M32" s="31" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N32" s="12" t="s">
         <x:v>147</x:v>
-      </x:c>
-      <x:c r="B32" s="26"/>
-      <x:c r="D32" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F32" s="27"/>
-      <x:c r="I32" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K32" s="27"/>
-      <x:c r="L32" s="12" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="M32" s="12" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="N32" s="12" t="s">
-        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A33" s="7" t="s">
-        <x:v>150</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B33" s="26"/>
-      <x:c r="D33" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F33" s="27"/>
-      <x:c r="I33" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K33" s="27"/>
+      <x:c r="F33" s="32" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="J33" s="27" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K33" s="28"/>
       <x:c r="L33" s="12" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="M33" s="12" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="N33" s="12" t="s">
-        <x:v>152</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A34" s="7" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B34" s="26"/>
+      <x:c r="F34" s="32" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G34" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H34" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I34" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J34" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K34" s="30" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L34" s="12" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="M34" s="31" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N34" s="12" t="s">
         <x:v>153</x:v>
-      </x:c>
-      <x:c r="B34" s="26"/>
-      <x:c r="D34" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F34" s="27"/>
-      <x:c r="I34" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K34" s="27"/>
-      <x:c r="L34" s="12" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="M34" s="12" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="N34" s="12" t="s">
-        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A35" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B35" s="26"/>
-      <x:c r="D35" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F35" s="27"/>
-      <x:c r="I35" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K35" s="27"/>
+      <x:c r="F35" s="32" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="J35" s="27" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K35" s="28"/>
       <x:c r="L35" s="12" t="s">
-        <x:v>157</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="M35" s="12" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="N35" s="12" t="s">
-        <x:v>158</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A36" s="7" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B36" s="26"/>
+      <x:c r="F36" s="32" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G36" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H36" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I36" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J36" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K36" s="30" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L36" s="12" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="M36" s="31" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N36" s="12" t="s">
         <x:v>159</x:v>
-      </x:c>
-      <x:c r="B36" s="26"/>
-      <x:c r="D36" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F36" s="27"/>
-      <x:c r="I36" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K36" s="27"/>
-      <x:c r="L36" s="12" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="M36" s="12" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="N36" s="12" t="s">
-        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A37" s="7" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B37" s="26"/>
+      <x:c r="F37" s="32" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="J37" s="27" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K37" s="28"/>
+      <x:c r="L37" s="12" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="B37" s="26"/>
-      <x:c r="D37" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F37" s="27"/>
-      <x:c r="I37" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K37" s="27"/>
-      <x:c r="L37" s="12" t="s">
+      <x:c r="M37" s="12" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N37" s="12" t="s">
         <x:v>162</x:v>
-      </x:c>
-      <x:c r="M37" s="12" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="N37" s="12" t="s">
-        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:14" ht="13.5" customHeight="1">
@@ -3116,14 +3136,13 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="B38" s="26"/>
-      <x:c r="D38" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F38" s="27"/>
-      <x:c r="I38" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K38" s="27"/>
+      <x:c r="F38" s="32" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H38" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K38" s="28"/>
       <x:c r="L38" s="12" t="s">
         <x:v>164</x:v>
       </x:c>
@@ -3139,19 +3158,18 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="B39" s="26"/>
-      <x:c r="D39" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F39" s="27"/>
-      <x:c r="I39" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K39" s="27"/>
+      <x:c r="F39" s="32" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H39" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K39" s="28"/>
       <x:c r="L39" s="12" t="s">
         <x:v>167</x:v>
       </x:c>
       <x:c r="M39" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N39" s="12" t="s">
         <x:v>168</x:v>
@@ -3162,14 +3180,13 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="B40" s="26"/>
-      <x:c r="D40" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F40" s="27"/>
-      <x:c r="I40" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K40" s="27"/>
+      <x:c r="F40" s="32" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H40" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K40" s="28"/>
       <x:c r="L40" s="12" t="s">
         <x:v>170</x:v>
       </x:c>
@@ -3185,19 +3202,18 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="B41" s="26"/>
-      <x:c r="D41" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F41" s="27"/>
-      <x:c r="I41" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K41" s="27"/>
+      <x:c r="F41" s="32" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="J41" s="27" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K41" s="28"/>
       <x:c r="L41" s="12" t="s">
         <x:v>173</x:v>
       </x:c>
       <x:c r="M41" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N41" s="12" t="s">
         <x:v>174</x:v>
@@ -3210,16 +3226,16 @@
       <x:c r="B42" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F42" s="27"/>
-      <x:c r="I42" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K42" s="27"/>
+      <x:c r="F42" s="28"/>
+      <x:c r="J42" s="27" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K42" s="28"/>
       <x:c r="L42" s="12" t="s">
         <x:v>176</x:v>
       </x:c>
       <x:c r="M42" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N42" s="12" t="s">
         <x:v>177</x:v>
@@ -3232,16 +3248,16 @@
       <x:c r="B43" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F43" s="27"/>
-      <x:c r="H43" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K43" s="27"/>
+      <x:c r="F43" s="28"/>
+      <x:c r="J43" s="27" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K43" s="28"/>
       <x:c r="L43" s="12" t="s">
         <x:v>179</x:v>
       </x:c>
       <x:c r="M43" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N43" s="12" t="s">
         <x:v>180</x:v>
@@ -3254,26 +3270,26 @@
       <x:c r="B44" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F44" s="27"/>
-      <x:c r="G44" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H44" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I44" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J44" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K44" s="31" t="s">
+      <x:c r="F44" s="28"/>
+      <x:c r="G44" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H44" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I44" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J44" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K44" s="30" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="L44" s="12" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="M44" s="32" t="s">
+      <x:c r="M44" s="31" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="N44" s="12" t="s">
@@ -3287,11 +3303,11 @@
       <x:c r="B45" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F45" s="27"/>
-      <x:c r="H45" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K45" s="27"/>
+      <x:c r="F45" s="28"/>
+      <x:c r="I45" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K45" s="28"/>
       <x:c r="L45" s="12" t="s">
         <x:v>185</x:v>
       </x:c>
@@ -3299,150 +3315,161 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="N45" s="12" t="s">
-        <x:v>183</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A46" s="7" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B46" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F46" s="27"/>
+      <x:c r="F46" s="28"/>
       <x:c r="H46" s="33" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K46" s="27"/>
+      <x:c r="K46" s="28"/>
       <x:c r="L46" s="12" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="M46" s="12" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="N46" s="12" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A47" s="7" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B47" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F47" s="27"/>
-      <x:c r="G47" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H47" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I47" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J47" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K47" s="31" t="s">
+      <x:c r="F47" s="28"/>
+      <x:c r="G47" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H47" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I47" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J47" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K47" s="30" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="L47" s="12" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="M47" s="32" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="M47" s="31" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="N47" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A48" s="7" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B48" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F48" s="27"/>
-      <x:c r="I48" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K48" s="27"/>
+      <x:c r="F48" s="28"/>
+      <x:c r="H48" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K48" s="28"/>
       <x:c r="L48" s="12" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="M48" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="N48" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A49" s="7" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B49" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F49" s="27"/>
-      <x:c r="I49" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K49" s="27"/>
+      <x:c r="F49" s="28"/>
+      <x:c r="H49" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K49" s="28"/>
       <x:c r="L49" s="12" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="M49" s="12" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="N49" s="12" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A50" s="7" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B50" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F50" s="27"/>
-      <x:c r="I50" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K50" s="27"/>
+      <x:c r="F50" s="28"/>
+      <x:c r="G50" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H50" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I50" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J50" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K50" s="30" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="L50" s="12" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="M50" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="M50" s="31" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N50" s="12" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A51" s="7" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B51" s="26" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F51" s="28"/>
+      <x:c r="I51" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K51" s="28"/>
+      <x:c r="L51" s="12" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="M51" s="12" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N51" s="12" t="s">
         <x:v>200</x:v>
-      </x:c>
-      <x:c r="B51" s="26" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F51" s="27"/>
-      <x:c r="I51" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K51" s="27"/>
-      <x:c r="L51" s="12" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="M51" s="12" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="N51" s="12" t="s">
-        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:14" ht="13.5" customHeight="1">
@@ -3452,27 +3479,16 @@
       <x:c r="B52" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F52" s="27"/>
-      <x:c r="G52" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H52" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I52" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J52" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K52" s="31" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="F52" s="28"/>
+      <x:c r="I52" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K52" s="28"/>
       <x:c r="L52" s="12" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="M52" s="32" t="s">
-        <x:v>37</x:v>
+      <x:c r="M52" s="12" t="s">
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N52" s="12" t="s">
         <x:v>205</x:v>
@@ -3485,27 +3501,16 @@
       <x:c r="B53" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F53" s="27"/>
-      <x:c r="G53" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H53" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I53" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J53" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K53" s="31" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="F53" s="28"/>
+      <x:c r="I53" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K53" s="28"/>
       <x:c r="L53" s="12" t="s">
         <x:v>207</x:v>
       </x:c>
-      <x:c r="M53" s="32" t="s">
-        <x:v>37</x:v>
+      <x:c r="M53" s="12" t="s">
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N53" s="12" t="s">
         <x:v>208</x:v>
@@ -3518,16 +3523,16 @@
       <x:c r="B54" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F54" s="27"/>
-      <x:c r="H54" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K54" s="27"/>
+      <x:c r="F54" s="28"/>
+      <x:c r="I54" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K54" s="28"/>
       <x:c r="L54" s="12" t="s">
         <x:v>210</x:v>
       </x:c>
       <x:c r="M54" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N54" s="12" t="s">
         <x:v>211</x:v>
@@ -3540,16 +3545,27 @@
       <x:c r="B55" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F55" s="27"/>
-      <x:c r="H55" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K55" s="27"/>
+      <x:c r="F55" s="28"/>
+      <x:c r="G55" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H55" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I55" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J55" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K55" s="30" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="L55" s="12" t="s">
         <x:v>213</x:v>
       </x:c>
-      <x:c r="M55" s="12" t="s">
-        <x:v>54</x:v>
+      <x:c r="M55" s="31" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N55" s="12" t="s">
         <x:v>214</x:v>
@@ -3562,16 +3578,27 @@
       <x:c r="B56" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F56" s="27"/>
-      <x:c r="H56" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K56" s="27"/>
+      <x:c r="F56" s="28"/>
+      <x:c r="G56" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H56" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I56" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J56" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K56" s="30" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="L56" s="12" t="s">
         <x:v>216</x:v>
       </x:c>
-      <x:c r="M56" s="12" t="s">
-        <x:v>52</x:v>
+      <x:c r="M56" s="31" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N56" s="12" t="s">
         <x:v>217</x:v>
@@ -3584,16 +3611,16 @@
       <x:c r="B57" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F57" s="27"/>
+      <x:c r="F57" s="28"/>
       <x:c r="H57" s="33" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K57" s="27"/>
+      <x:c r="K57" s="28"/>
       <x:c r="L57" s="12" t="s">
         <x:v>219</x:v>
       </x:c>
       <x:c r="M57" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N57" s="12" t="s">
         <x:v>220</x:v>
@@ -3606,11 +3633,11 @@
       <x:c r="B58" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F58" s="27"/>
+      <x:c r="F58" s="28"/>
       <x:c r="H58" s="33" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K58" s="27"/>
+      <x:c r="K58" s="28"/>
       <x:c r="L58" s="12" t="s">
         <x:v>222</x:v>
       </x:c>
@@ -3628,27 +3655,16 @@
       <x:c r="B59" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F59" s="27"/>
-      <x:c r="G59" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H59" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I59" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J59" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K59" s="31" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="F59" s="28"/>
+      <x:c r="H59" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K59" s="28"/>
       <x:c r="L59" s="12" t="s">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="M59" s="32" t="s">
-        <x:v>37</x:v>
+      <x:c r="M59" s="12" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N59" s="12" t="s">
         <x:v>226</x:v>
@@ -3661,16 +3677,16 @@
       <x:c r="B60" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F60" s="27"/>
+      <x:c r="F60" s="28"/>
       <x:c r="H60" s="33" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K60" s="27"/>
+      <x:c r="K60" s="28"/>
       <x:c r="L60" s="12" t="s">
         <x:v>228</x:v>
       </x:c>
       <x:c r="M60" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N60" s="12" t="s">
         <x:v>229</x:v>
@@ -3683,11 +3699,11 @@
       <x:c r="B61" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F61" s="27"/>
+      <x:c r="F61" s="28"/>
       <x:c r="H61" s="33" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K61" s="27"/>
+      <x:c r="K61" s="28"/>
       <x:c r="L61" s="12" t="s">
         <x:v>231</x:v>
       </x:c>
@@ -3705,26 +3721,26 @@
       <x:c r="B62" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F62" s="27"/>
-      <x:c r="G62" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H62" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I62" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J62" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K62" s="31" t="s">
+      <x:c r="F62" s="28"/>
+      <x:c r="G62" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H62" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I62" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J62" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K62" s="30" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="L62" s="12" t="s">
         <x:v>234</x:v>
       </x:c>
-      <x:c r="M62" s="32" t="s">
+      <x:c r="M62" s="31" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="N62" s="12" t="s">
@@ -3738,11 +3754,11 @@
       <x:c r="B63" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F63" s="27"/>
+      <x:c r="F63" s="28"/>
       <x:c r="H63" s="33" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K63" s="27"/>
+      <x:c r="K63" s="28"/>
       <x:c r="L63" s="12" t="s">
         <x:v>237</x:v>
       </x:c>
@@ -3760,11 +3776,11 @@
       <x:c r="B64" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F64" s="27"/>
+      <x:c r="F64" s="28"/>
       <x:c r="H64" s="33" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K64" s="27"/>
+      <x:c r="K64" s="28"/>
       <x:c r="L64" s="12" t="s">
         <x:v>240</x:v>
       </x:c>
@@ -3782,26 +3798,26 @@
       <x:c r="B65" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F65" s="27"/>
-      <x:c r="G65" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H65" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I65" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J65" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K65" s="31" t="s">
+      <x:c r="F65" s="28"/>
+      <x:c r="G65" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H65" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I65" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J65" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K65" s="30" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="L65" s="12" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="M65" s="32" t="s">
+      <x:c r="M65" s="31" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="N65" s="12" t="s">
@@ -3815,27 +3831,16 @@
       <x:c r="B66" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F66" s="27"/>
-      <x:c r="G66" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H66" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I66" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J66" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K66" s="31" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="F66" s="28"/>
+      <x:c r="H66" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K66" s="28"/>
       <x:c r="L66" s="12" t="s">
         <x:v>246</x:v>
       </x:c>
-      <x:c r="M66" s="32" t="s">
-        <x:v>37</x:v>
+      <x:c r="M66" s="12" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N66" s="12" t="s">
         <x:v>247</x:v>
@@ -3848,16 +3853,16 @@
       <x:c r="B67" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F67" s="27"/>
+      <x:c r="F67" s="28"/>
       <x:c r="H67" s="33" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K67" s="27"/>
+      <x:c r="K67" s="28"/>
       <x:c r="L67" s="12" t="s">
         <x:v>249</x:v>
       </x:c>
       <x:c r="M67" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N67" s="12" t="s">
         <x:v>250</x:v>
@@ -3870,16 +3875,27 @@
       <x:c r="B68" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F68" s="27"/>
-      <x:c r="H68" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K68" s="27"/>
+      <x:c r="F68" s="28"/>
+      <x:c r="G68" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H68" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I68" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J68" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K68" s="30" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="L68" s="12" t="s">
         <x:v>252</x:v>
       </x:c>
-      <x:c r="M68" s="12" t="s">
-        <x:v>54</x:v>
+      <x:c r="M68" s="31" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N68" s="12" t="s">
         <x:v>253</x:v>
@@ -3892,16 +3908,27 @@
       <x:c r="B69" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F69" s="27"/>
-      <x:c r="H69" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K69" s="27"/>
+      <x:c r="F69" s="28"/>
+      <x:c r="G69" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H69" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I69" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J69" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K69" s="30" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="L69" s="12" t="s">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="M69" s="12" t="s">
-        <x:v>54</x:v>
+      <x:c r="M69" s="31" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N69" s="12" t="s">
         <x:v>256</x:v>
@@ -3914,11 +3941,11 @@
       <x:c r="B70" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F70" s="27"/>
-      <x:c r="I70" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K70" s="27"/>
+      <x:c r="F70" s="28"/>
+      <x:c r="H70" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K70" s="28"/>
       <x:c r="L70" s="12" t="s">
         <x:v>258</x:v>
       </x:c>
@@ -3936,11 +3963,11 @@
       <x:c r="B71" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F71" s="27"/>
-      <x:c r="I71" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K71" s="27"/>
+      <x:c r="F71" s="28"/>
+      <x:c r="H71" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K71" s="28"/>
       <x:c r="L71" s="12" t="s">
         <x:v>261</x:v>
       </x:c>
@@ -3958,16 +3985,16 @@
       <x:c r="B72" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F72" s="27"/>
-      <x:c r="I72" s="34" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K72" s="27"/>
+      <x:c r="F72" s="28"/>
+      <x:c r="H72" s="33" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K72" s="28"/>
       <x:c r="L72" s="12" t="s">
         <x:v>264</x:v>
       </x:c>
       <x:c r="M72" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N72" s="12" t="s">
         <x:v>265</x:v>
@@ -3980,11 +4007,11 @@
       <x:c r="B73" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F73" s="27"/>
+      <x:c r="F73" s="28"/>
       <x:c r="I73" s="34" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K73" s="27"/>
+      <x:c r="K73" s="28"/>
       <x:c r="L73" s="12" t="s">
         <x:v>267</x:v>
       </x:c>
@@ -4002,16 +4029,16 @@
       <x:c r="B74" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F74" s="27"/>
+      <x:c r="F74" s="28"/>
       <x:c r="I74" s="34" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K74" s="27"/>
+      <x:c r="K74" s="28"/>
       <x:c r="L74" s="12" t="s">
         <x:v>270</x:v>
       </x:c>
       <x:c r="M74" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N74" s="12" t="s">
         <x:v>271</x:v>
@@ -4024,19 +4051,85 @@
       <x:c r="B75" s="26" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="F75" s="27"/>
+      <x:c r="F75" s="28"/>
       <x:c r="I75" s="34" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K75" s="27"/>
+      <x:c r="K75" s="28"/>
       <x:c r="L75" s="12" t="s">
         <x:v>273</x:v>
       </x:c>
       <x:c r="M75" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N75" s="12" t="s">
         <x:v>274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A76" s="7" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="B76" s="26" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F76" s="28"/>
+      <x:c r="I76" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K76" s="28"/>
+      <x:c r="L76" s="12" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="M76" s="12" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N76" s="12" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A77" s="7" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B77" s="26" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F77" s="28"/>
+      <x:c r="I77" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K77" s="28"/>
+      <x:c r="L77" s="12" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="M77" s="12" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N77" s="12" t="s">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A78" s="7" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="B78" s="26" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F78" s="28"/>
+      <x:c r="I78" s="34" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K78" s="28"/>
+      <x:c r="L78" s="12" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="M78" s="12" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="N78" s="12" t="s">
+        <x:v>283</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/tests/test1/output/main-stats.xlsx
+++ b/tests/test1/output/main-stats.xlsx
@@ -81,7 +81,7 @@
     <x:t>50?</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:27</x:t>
+    <x:t>main.ink:28</x:t>
   </x:si>
   <x:si>
     <x:t>Barks</x:t>
@@ -90,7 +90,7 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:44</x:t>
+    <x:t>main.ink:45</x:t>
   </x:si>
   <x:si>
     <x:t>Recording</x:t>
@@ -105,7 +105,7 @@
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:60</x:t>
+    <x:t>main.ink:61</x:t>
   </x:si>
   <x:si>
     <x:t>Scene1</x:t>
@@ -138,6 +138,15 @@
     <x:t>branches.ink:61</x:t>
   </x:si>
   <x:si>
+    <x:t>Cycles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles.ink:5</x:t>
+  </x:si>
+  <x:si>
     <x:t>Non-Dink</x:t>
   </x:si>
   <x:si>
@@ -147,7 +156,7 @@
     <x:t>Totals</x:t>
   </x:si>
   <x:si>
-    <x:t>39</x:t>
+    <x:t>51</x:t>
   </x:si>
   <x:si>
     <x:t>57?</x:t>
@@ -156,7 +165,7 @@
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>123?</x:t>
+    <x:t>135?</x:t>
   </x:si>
   <x:si>
     <x:t>Character</x:t>
@@ -207,7 +216,7 @@
     <x:t>X</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:10</x:t>
+    <x:t>main.ink:11</x:t>
   </x:si>
   <x:si>
     <x:t>This is a test file.</x:t>
@@ -216,7 +225,7 @@
     <x:t>main_Intro2_PCBU</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:16</x:t>
+    <x:t>main.ink:17</x:t>
   </x:si>
   <x:si>
     <x:t>LAURA: This is an earlier line I am saying.</x:t>
@@ -225,7 +234,7 @@
     <x:t>main_TestScene_16U4</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:32</x:t>
+    <x:t>main.ink:33</x:t>
   </x:si>
   <x:si>
     <x:t>This is a line I am saying.</x:t>
@@ -234,7 +243,7 @@
     <x:t>main_TestScene_FF1T</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:36</x:t>
+    <x:t>main.ink:37</x:t>
   </x:si>
   <x:si>
     <x:t>This is another line.</x:t>
@@ -243,7 +252,7 @@
     <x:t>main_TestScene_BQ1E</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:38</x:t>
+    <x:t>main.ink:39</x:t>
   </x:si>
   <x:si>
     <x:t>This is a loud line!</x:t>
@@ -252,7 +261,7 @@
     <x:t>main_TestScene_IQIS</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:41</x:t>
+    <x:t>main.ink:42</x:t>
   </x:si>
   <x:si>
     <x:t>Glad that's over with!</x:t>
@@ -261,7 +270,7 @@
     <x:t>main_Barks_O037</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:47</x:t>
+    <x:t>main.ink:48</x:t>
   </x:si>
   <x:si>
     <x:t>Bark1</x:t>
@@ -270,7 +279,7 @@
     <x:t>main_Barks_UWZ2</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:48</x:t>
+    <x:t>main.ink:49</x:t>
   </x:si>
   <x:si>
     <x:t>Bark2</x:t>
@@ -279,7 +288,7 @@
     <x:t>main_Barks_1ZG8</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:49</x:t>
+    <x:t>main.ink:50</x:t>
   </x:si>
   <x:si>
     <x:t>Bark3</x:t>
@@ -288,7 +297,7 @@
     <x:t>main_Barks_JFG1</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:52</x:t>
+    <x:t>main.ink:53</x:t>
   </x:si>
   <x:si>
     <x:t>Bark4</x:t>
@@ -297,7 +306,7 @@
     <x:t>main_Barks_X291</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:53</x:t>
+    <x:t>main.ink:54</x:t>
   </x:si>
   <x:si>
     <x:t>Response to Bark 4.</x:t>
@@ -306,7 +315,7 @@
     <x:t>main_Barks_L2SX</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:55</x:t>
+    <x:t>main.ink:56</x:t>
   </x:si>
   <x:si>
     <x:t>Bark5</x:t>
@@ -315,7 +324,7 @@
     <x:t>main_Barks_N07F</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:56</x:t>
+    <x:t>main.ink:57</x:t>
   </x:si>
   <x:si>
     <x:t>Bark6</x:t>
@@ -324,7 +333,7 @@
     <x:t>main_Recording_7ZMT</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:62</x:t>
+    <x:t>main.ink:63</x:t>
   </x:si>
   <x:si>
     <x:t>This is a recording line.</x:t>
@@ -333,7 +342,7 @@
     <x:t>main_Recording_PartA_U9ZN</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:70</x:t>
+    <x:t>main.ink:71</x:t>
   </x:si>
   <x:si>
     <x:t>This is a line hidden by a false clause.</x:t>
@@ -342,7 +351,7 @@
     <x:t>main_Recording_PartB_VPX8</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:80</x:t>
+    <x:t>main.ink:81</x:t>
   </x:si>
   <x:si>
     <x:t>This is a line.</x:t>
@@ -351,13 +360,13 @@
     <x:t>main_Recording_PartB_FH4U</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:82</x:t>
+    <x:t>main.ink:83</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_1RQS</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:84</x:t>
+    <x:t>main.ink:85</x:t>
   </x:si>
   <x:si>
     <x:t>This is also a line.</x:t>
@@ -366,7 +375,7 @@
     <x:t>main_Recording_PartC_JITN</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:91</x:t>
+    <x:t>main.ink:92</x:t>
   </x:si>
   <x:si>
     <x:t>This is a first line about monkeys.</x:t>
@@ -375,7 +384,7 @@
     <x:t>main_Recording_PartC_GUS9</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:92</x:t>
+    <x:t>main.ink:93</x:t>
   </x:si>
   <x:si>
     <x:t>This is a second line about monkeys.</x:t>
@@ -384,7 +393,7 @@
     <x:t>main_Recording_PartC_3VZB</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:93</x:t>
+    <x:t>main.ink:94</x:t>
   </x:si>
   <x:si>
     <x:t>This is a third monkey line.</x:t>
@@ -393,7 +402,7 @@
     <x:t>main_Recording_PartC_A18G</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:94</x:t>
+    <x:t>main.ink:95</x:t>
   </x:si>
   <x:si>
     <x:t>This is a final monkey line.</x:t>
@@ -402,19 +411,19 @@
     <x:t>main_Recording_PartD_UC9D</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:102</x:t>
+    <x:t>main.ink:103</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_08WO</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:104</x:t>
+    <x:t>main.ink:105</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_81AO</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:109</x:t>
+    <x:t>main.ink:110</x:t>
   </x:si>
   <x:si>
     <x:t>Goodbye!</x:t>
@@ -423,7 +432,7 @@
     <x:t>main_Recording_PartE_JY1W</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:110</x:t>
+    <x:t>main.ink:111</x:t>
   </x:si>
   <x:si>
     <x:t>Seeya!</x:t>
@@ -432,7 +441,7 @@
     <x:t>main_Recording_PartE_QEM8</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:111</x:t>
+    <x:t>main.ink:112</x:t>
   </x:si>
   <x:si>
     <x:t>Whoops!</x:t>
@@ -441,7 +450,7 @@
     <x:t>main_Recording_PartE_KABN</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:112</x:t>
+    <x:t>main.ink:113</x:t>
   </x:si>
   <x:si>
     <x:t>Responds.</x:t>
@@ -880,6 +889,114 @@
   </x:si>
   <x:si>
     <x:t>And we're back.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_LineTest_65J9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles.ink:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This should be fine.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_LineTest_XFQW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles.ink:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>So should this.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_RR4G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles.ink:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fancy Bark 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_D4KV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles.ink:23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fancy Bark 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_A2I1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles.ink:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fancy Bark 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_3KK1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles.ink:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fancy Bark 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_FF35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles.ink:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spinning on fancy bark 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_23Q8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles.ink:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spinning on fancy bark 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_StringExpressionsTest_1L9A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles.ink:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Huh.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_StringExpressionsTest_ZHNZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles.ink:39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Huh yourself.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_ListExpressionTest_LUCG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles.ink:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>List item 1.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_ListExpressionTest_JXXD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles.ink:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>List item 2.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1262,8 +1379,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N9" totalsRowShown="0">
-  <x:autoFilter ref="A1:N9"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N10" totalsRowShown="0">
+  <x:autoFilter ref="A1:N10"/>
   <x:tableColumns count="14">
     <x:tableColumn id="1" name="Scene ID"/>
     <x:tableColumn id="2" name="Writing_x000a_Unknown"/>
@@ -1300,8 +1417,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N78" totalsRowShown="0">
-  <x:autoFilter ref="A1:N78"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N90" totalsRowShown="0">
+  <x:autoFilter ref="A1:N90"/>
   <x:tableColumns count="14">
     <x:tableColumn id="1" name="Line ID" dataDxfId="1"/>
     <x:tableColumn id="2" name="Writing_x000a_Unknown" dataDxfId="3"/>
@@ -1610,7 +1727,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N9"/>
+  <x:dimension ref="A1:N10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
@@ -1942,88 +2059,132 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <x:c r="A8" s="15" t="s">
+      <x:c r="A8" s="7" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B8" s="16">
+      <x:c r="B8" s="8" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G8" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H8" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I8" s="9">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J8" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K8" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L8" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M8" s="10">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N8" s="12" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A9" s="15" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B9" s="16">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C8" s="17">
+      <x:c r="C9" s="17">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D8" s="17">
+      <x:c r="D9" s="17">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E8" s="17">
+      <x:c r="E9" s="17">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F8" s="17">
+      <x:c r="F9" s="17">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G8" s="18">
+      <x:c r="G9" s="18">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="H8" s="19" t="s">
+      <x:c r="H9" s="19" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I9" s="19" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J9" s="19" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K9" s="19" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L9" s="19" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="M9" s="20" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N9" s="12"/>
+    </x:row>
+    <x:row r="10" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A10" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B10" s="21" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C10" s="22" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D10" s="22" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E10" s="22" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F10" s="22" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G10" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H10" s="22">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I10" s="22">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J10" s="22">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="I8" s="19" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J8" s="19" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K8" s="19" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L8" s="19" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="M8" s="20" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="N8" s="12"/>
-    </x:row>
-    <x:row r="9" spans="1:14" ht="13.5" customHeight="1">
-      <x:c r="A9" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B9" s="21" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C9" s="22" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D9" s="22" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E9" s="22" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F9" s="22" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G9" s="10" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H9" s="22">
+      <x:c r="K10" s="22">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L10" s="22">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I9" s="22">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J9" s="22">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K9" s="22">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="L9" s="22">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M9" s="10">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="N9" s="12"/>
+      <x:c r="M10" s="10">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="N10" s="12"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -2063,33 +2224,33 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D1" s="23" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E1" s="23" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F1" s="23" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A2" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B2" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C2" s="12">
-        <x:v>18</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D2" s="12">
         <x:v>2</x:v>
@@ -2098,12 +2259,12 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F2" s="24">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A3" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C3" s="12">
         <x:v>2</x:v>
@@ -2120,10 +2281,10 @@
     </x:row>
     <x:row r="4" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A4" s="7" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B4" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C4" s="12">
         <x:v>12</x:v>
@@ -2140,10 +2301,10 @@
     </x:row>
     <x:row r="5" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A5" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C5" s="12">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D5" s="12">
         <x:v>1</x:v>
@@ -2152,12 +2313,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F5" s="24">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A6" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C6" s="12">
         <x:v>20</x:v>
@@ -2188,7 +2349,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N78"/>
+  <x:dimension ref="A1:N90"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
@@ -2197,7 +2358,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="15" max="16384" width="9.140625" style="25" customWidth="1"/>
-    <x:col min="1" max="1" width="34.585625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="39.210625" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="10.835625" style="25" customWidth="1"/>
     <x:col min="3" max="3" width="8.835625" style="25" customWidth="1"/>
     <x:col min="4" max="4" width="11.210625" style="25" customWidth="1"/>
@@ -2215,7 +2376,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:14" ht="27" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
         <x:v>1</x:v>
@@ -2251,1885 +2412,2149 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="M1" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N1" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A2" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B2" s="26"/>
       <x:c r="E2" s="27" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F2" s="28"/>
       <x:c r="G2" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H2" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I2" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J2" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K2" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L2" s="12" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="M2" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N2" s="12" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A3" s="7" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B3" s="26"/>
       <x:c r="F3" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G3" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H3" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I3" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J3" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K3" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L3" s="12" t="s">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="M3" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N3" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A4" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B4" s="26"/>
       <x:c r="C4" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F4" s="28"/>
       <x:c r="I4" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K4" s="28"/>
       <x:c r="L4" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M4" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N4" s="12" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A5" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B5" s="26"/>
       <x:c r="C5" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F5" s="28"/>
       <x:c r="I5" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K5" s="28"/>
       <x:c r="L5" s="12" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M5" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N5" s="12" t="s">
-        <x:v>69</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A6" s="7" t="s">
-        <x:v>70</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B6" s="26"/>
       <x:c r="C6" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F6" s="28"/>
       <x:c r="I6" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K6" s="28"/>
       <x:c r="L6" s="12" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M6" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N6" s="12" t="s">
-        <x:v>72</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A7" s="7" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B7" s="26"/>
       <x:c r="C7" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F7" s="28"/>
       <x:c r="I7" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K7" s="28"/>
       <x:c r="L7" s="12" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="M7" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N7" s="12" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A8" s="7" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B8" s="26"/>
       <x:c r="C8" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F8" s="28"/>
       <x:c r="I8" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K8" s="28"/>
       <x:c r="L8" s="12" t="s">
-        <x:v>77</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="M8" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N8" s="12" t="s">
-        <x:v>78</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A9" s="7" t="s">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B9" s="26"/>
       <x:c r="C9" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F9" s="28"/>
       <x:c r="I9" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K9" s="28"/>
       <x:c r="L9" s="12" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M9" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N9" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A10" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B10" s="26"/>
       <x:c r="C10" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F10" s="28"/>
       <x:c r="I10" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K10" s="28"/>
       <x:c r="L10" s="12" t="s">
-        <x:v>83</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M10" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N10" s="12" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A11" s="7" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B11" s="26"/>
       <x:c r="C11" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F11" s="28"/>
       <x:c r="I11" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K11" s="28"/>
       <x:c r="L11" s="12" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="M11" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N11" s="12" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A12" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B12" s="26"/>
       <x:c r="C12" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F12" s="28"/>
       <x:c r="I12" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K12" s="28"/>
       <x:c r="L12" s="12" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M12" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N12" s="12" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A13" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B13" s="26"/>
       <x:c r="C13" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F13" s="28"/>
       <x:c r="I13" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K13" s="28"/>
       <x:c r="L13" s="12" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M13" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N13" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A14" s="7" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B14" s="26"/>
       <x:c r="C14" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F14" s="28"/>
       <x:c r="I14" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K14" s="28"/>
       <x:c r="L14" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M14" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N14" s="12" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A15" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B15" s="26"/>
       <x:c r="D15" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F15" s="28"/>
       <x:c r="I15" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K15" s="28"/>
       <x:c r="L15" s="12" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M15" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N15" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A16" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B16" s="26"/>
       <x:c r="E16" s="27" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F16" s="28"/>
       <x:c r="I16" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K16" s="28"/>
       <x:c r="L16" s="12" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M16" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N16" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A17" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B17" s="26"/>
       <x:c r="D17" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F17" s="28"/>
       <x:c r="I17" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K17" s="28"/>
       <x:c r="L17" s="12" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M17" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N17" s="12" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A18" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B18" s="26"/>
       <x:c r="D18" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F18" s="28"/>
       <x:c r="I18" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K18" s="28"/>
       <x:c r="L18" s="12" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M18" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N18" s="12" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B19" s="26"/>
       <x:c r="D19" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F19" s="28"/>
       <x:c r="I19" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K19" s="28"/>
       <x:c r="L19" s="12" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M19" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N19" s="12" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A20" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B20" s="26"/>
       <x:c r="D20" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F20" s="28"/>
       <x:c r="I20" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K20" s="28"/>
       <x:c r="L20" s="12" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="M20" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N20" s="12" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A21" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B21" s="26"/>
       <x:c r="D21" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F21" s="28"/>
       <x:c r="I21" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K21" s="28"/>
       <x:c r="L21" s="12" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="M21" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N21" s="12" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A22" s="7" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B22" s="26"/>
       <x:c r="D22" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F22" s="28"/>
       <x:c r="I22" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K22" s="28"/>
       <x:c r="L22" s="12" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="M22" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N22" s="12" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A23" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B23" s="26"/>
       <x:c r="D23" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F23" s="28"/>
       <x:c r="I23" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K23" s="28"/>
       <x:c r="L23" s="12" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="M23" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N23" s="12" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A24" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B24" s="26"/>
       <x:c r="D24" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F24" s="28"/>
       <x:c r="I24" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K24" s="28"/>
       <x:c r="L24" s="12" t="s">
-        <x:v>124</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="M24" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N24" s="12" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A25" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B25" s="26"/>
       <x:c r="D25" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F25" s="28"/>
       <x:c r="I25" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K25" s="28"/>
       <x:c r="L25" s="12" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="M25" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N25" s="12" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A26" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B26" s="26"/>
       <x:c r="D26" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F26" s="28"/>
       <x:c r="I26" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K26" s="28"/>
       <x:c r="L26" s="12" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="M26" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N26" s="12" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A27" s="7" t="s">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B27" s="26"/>
       <x:c r="D27" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F27" s="28"/>
       <x:c r="I27" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K27" s="28"/>
       <x:c r="L27" s="12" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M27" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N27" s="12" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A28" s="7" t="s">
-        <x:v>133</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B28" s="26"/>
       <x:c r="D28" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F28" s="28"/>
       <x:c r="I28" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K28" s="28"/>
       <x:c r="L28" s="12" t="s">
-        <x:v>134</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="M28" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N28" s="12" t="s">
-        <x:v>135</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A29" s="7" t="s">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B29" s="26"/>
       <x:c r="D29" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F29" s="28"/>
       <x:c r="I29" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K29" s="28"/>
       <x:c r="L29" s="12" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="M29" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N29" s="12" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A30" s="7" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B30" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F30" s="28"/>
       <x:c r="J30" s="27" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K30" s="28"/>
       <x:c r="L30" s="12" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="M30" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N30" s="12" t="s">
-        <x:v>141</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A31" s="7" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B31" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F31" s="28"/>
       <x:c r="J31" s="27" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K31" s="28"/>
       <x:c r="L31" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="M31" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N31" s="12" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A32" s="7" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B32" s="26"/>
       <x:c r="F32" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G32" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H32" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I32" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J32" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K32" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L32" s="12" t="s">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="M32" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N32" s="12" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A33" s="7" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B33" s="26"/>
       <x:c r="F33" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J33" s="27" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K33" s="28"/>
       <x:c r="L33" s="12" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="M33" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N33" s="12" t="s">
-        <x:v>150</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A34" s="7" t="s">
-        <x:v>151</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B34" s="26"/>
       <x:c r="F34" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G34" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H34" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I34" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J34" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K34" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L34" s="12" t="s">
-        <x:v>152</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="M34" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N34" s="12" t="s">
-        <x:v>153</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A35" s="7" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B35" s="26"/>
       <x:c r="F35" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J35" s="27" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K35" s="28"/>
       <x:c r="L35" s="12" t="s">
-        <x:v>155</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="M35" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N35" s="12" t="s">
-        <x:v>156</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A36" s="7" t="s">
-        <x:v>157</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B36" s="26"/>
       <x:c r="F36" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G36" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H36" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I36" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J36" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K36" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L36" s="12" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="M36" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N36" s="12" t="s">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A37" s="7" t="s">
-        <x:v>160</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B37" s="26"/>
       <x:c r="F37" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J37" s="27" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K37" s="28"/>
       <x:c r="L37" s="12" t="s">
-        <x:v>161</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="M37" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N37" s="12" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A38" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B38" s="26"/>
       <x:c r="F38" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H38" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K38" s="28"/>
       <x:c r="L38" s="12" t="s">
-        <x:v>164</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="M38" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N38" s="12" t="s">
-        <x:v>165</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A39" s="7" t="s">
-        <x:v>166</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B39" s="26"/>
       <x:c r="F39" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H39" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K39" s="28"/>
       <x:c r="L39" s="12" t="s">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="M39" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N39" s="12" t="s">
-        <x:v>168</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A40" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B40" s="26"/>
       <x:c r="F40" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H40" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K40" s="28"/>
       <x:c r="L40" s="12" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M40" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N40" s="12" t="s">
-        <x:v>171</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A41" s="7" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B41" s="26"/>
       <x:c r="F41" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J41" s="27" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K41" s="28"/>
       <x:c r="L41" s="12" t="s">
-        <x:v>173</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="M41" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N41" s="12" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A42" s="7" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B42" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F42" s="28"/>
       <x:c r="J42" s="27" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K42" s="28"/>
       <x:c r="L42" s="12" t="s">
-        <x:v>176</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="M42" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N42" s="12" t="s">
-        <x:v>177</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A43" s="7" t="s">
-        <x:v>178</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B43" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F43" s="28"/>
       <x:c r="J43" s="27" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K43" s="28"/>
       <x:c r="L43" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="M43" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N43" s="12" t="s">
-        <x:v>180</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A44" s="7" t="s">
-        <x:v>181</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B44" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F44" s="28"/>
       <x:c r="G44" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H44" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I44" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J44" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K44" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L44" s="12" t="s">
-        <x:v>182</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="M44" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N44" s="12" t="s">
-        <x:v>183</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A45" s="7" t="s">
-        <x:v>184</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B45" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F45" s="28"/>
       <x:c r="I45" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K45" s="28"/>
       <x:c r="L45" s="12" t="s">
-        <x:v>185</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="M45" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N45" s="12" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A46" s="7" t="s">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B46" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F46" s="28"/>
       <x:c r="H46" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K46" s="28"/>
       <x:c r="L46" s="12" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="M46" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N46" s="12" t="s">
-        <x:v>189</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A47" s="7" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B47" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F47" s="28"/>
       <x:c r="G47" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H47" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I47" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J47" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K47" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L47" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="M47" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N47" s="12" t="s">
-        <x:v>192</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A48" s="7" t="s">
-        <x:v>193</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B48" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F48" s="28"/>
       <x:c r="H48" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K48" s="28"/>
       <x:c r="L48" s="12" t="s">
-        <x:v>194</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="M48" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N48" s="12" t="s">
-        <x:v>192</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A49" s="7" t="s">
-        <x:v>195</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B49" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F49" s="28"/>
       <x:c r="H49" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K49" s="28"/>
       <x:c r="L49" s="12" t="s">
-        <x:v>196</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="M49" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N49" s="12" t="s">
-        <x:v>197</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A50" s="7" t="s">
-        <x:v>198</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B50" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F50" s="28"/>
       <x:c r="G50" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H50" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I50" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J50" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K50" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L50" s="12" t="s">
-        <x:v>199</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="M50" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N50" s="12" t="s">
-        <x:v>200</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A51" s="7" t="s">
-        <x:v>201</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B51" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F51" s="28"/>
       <x:c r="I51" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K51" s="28"/>
       <x:c r="L51" s="12" t="s">
-        <x:v>202</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="M51" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N51" s="12" t="s">
-        <x:v>200</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A52" s="7" t="s">
-        <x:v>203</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B52" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F52" s="28"/>
       <x:c r="I52" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K52" s="28"/>
       <x:c r="L52" s="12" t="s">
-        <x:v>204</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="M52" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N52" s="12" t="s">
-        <x:v>205</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A53" s="7" t="s">
-        <x:v>206</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B53" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F53" s="28"/>
       <x:c r="I53" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K53" s="28"/>
       <x:c r="L53" s="12" t="s">
-        <x:v>207</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="M53" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N53" s="12" t="s">
-        <x:v>208</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A54" s="7" t="s">
-        <x:v>209</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B54" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F54" s="28"/>
       <x:c r="I54" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K54" s="28"/>
       <x:c r="L54" s="12" t="s">
-        <x:v>210</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="M54" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N54" s="12" t="s">
-        <x:v>211</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A55" s="7" t="s">
-        <x:v>212</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B55" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F55" s="28"/>
       <x:c r="G55" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H55" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I55" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J55" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K55" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L55" s="12" t="s">
-        <x:v>213</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="M55" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N55" s="12" t="s">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A56" s="7" t="s">
-        <x:v>215</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B56" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F56" s="28"/>
       <x:c r="G56" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H56" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I56" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J56" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K56" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L56" s="12" t="s">
-        <x:v>216</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="M56" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N56" s="12" t="s">
-        <x:v>217</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A57" s="7" t="s">
-        <x:v>218</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B57" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F57" s="28"/>
       <x:c r="H57" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K57" s="28"/>
       <x:c r="L57" s="12" t="s">
-        <x:v>219</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="M57" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N57" s="12" t="s">
-        <x:v>220</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A58" s="7" t="s">
-        <x:v>221</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B58" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F58" s="28"/>
       <x:c r="H58" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K58" s="28"/>
       <x:c r="L58" s="12" t="s">
-        <x:v>222</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="M58" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N58" s="12" t="s">
-        <x:v>223</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A59" s="7" t="s">
-        <x:v>224</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B59" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F59" s="28"/>
       <x:c r="H59" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K59" s="28"/>
       <x:c r="L59" s="12" t="s">
-        <x:v>225</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="M59" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N59" s="12" t="s">
-        <x:v>226</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A60" s="7" t="s">
-        <x:v>227</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B60" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F60" s="28"/>
       <x:c r="H60" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K60" s="28"/>
       <x:c r="L60" s="12" t="s">
-        <x:v>228</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="M60" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N60" s="12" t="s">
-        <x:v>229</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A61" s="7" t="s">
-        <x:v>230</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B61" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F61" s="28"/>
       <x:c r="H61" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K61" s="28"/>
       <x:c r="L61" s="12" t="s">
-        <x:v>231</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="M61" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N61" s="12" t="s">
-        <x:v>232</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A62" s="7" t="s">
-        <x:v>233</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B62" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F62" s="28"/>
       <x:c r="G62" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H62" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I62" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J62" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K62" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L62" s="12" t="s">
-        <x:v>234</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="M62" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N62" s="12" t="s">
-        <x:v>235</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A63" s="7" t="s">
-        <x:v>236</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B63" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F63" s="28"/>
       <x:c r="H63" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K63" s="28"/>
       <x:c r="L63" s="12" t="s">
-        <x:v>237</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="M63" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N63" s="12" t="s">
-        <x:v>238</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A64" s="7" t="s">
-        <x:v>239</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B64" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F64" s="28"/>
       <x:c r="H64" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K64" s="28"/>
       <x:c r="L64" s="12" t="s">
-        <x:v>240</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="M64" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N64" s="12" t="s">
-        <x:v>241</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A65" s="7" t="s">
-        <x:v>242</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B65" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F65" s="28"/>
       <x:c r="G65" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H65" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I65" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J65" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K65" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L65" s="12" t="s">
-        <x:v>243</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="M65" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N65" s="12" t="s">
-        <x:v>244</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A66" s="7" t="s">
-        <x:v>245</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B66" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F66" s="28"/>
       <x:c r="H66" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K66" s="28"/>
       <x:c r="L66" s="12" t="s">
-        <x:v>246</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="M66" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N66" s="12" t="s">
-        <x:v>247</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A67" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B67" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F67" s="28"/>
       <x:c r="H67" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K67" s="28"/>
       <x:c r="L67" s="12" t="s">
-        <x:v>249</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="M67" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N67" s="12" t="s">
-        <x:v>250</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A68" s="7" t="s">
-        <x:v>251</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B68" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F68" s="28"/>
       <x:c r="G68" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H68" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I68" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J68" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K68" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L68" s="12" t="s">
-        <x:v>252</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="M68" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N68" s="12" t="s">
-        <x:v>253</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A69" s="7" t="s">
-        <x:v>254</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B69" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F69" s="28"/>
       <x:c r="G69" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H69" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I69" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J69" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K69" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L69" s="12" t="s">
-        <x:v>255</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="M69" s="31" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N69" s="12" t="s">
-        <x:v>256</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A70" s="7" t="s">
-        <x:v>257</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B70" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F70" s="28"/>
       <x:c r="H70" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K70" s="28"/>
       <x:c r="L70" s="12" t="s">
-        <x:v>258</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="M70" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N70" s="12" t="s">
-        <x:v>259</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A71" s="7" t="s">
-        <x:v>260</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B71" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F71" s="28"/>
       <x:c r="H71" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K71" s="28"/>
       <x:c r="L71" s="12" t="s">
-        <x:v>261</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="M71" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N71" s="12" t="s">
-        <x:v>262</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A72" s="7" t="s">
-        <x:v>263</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B72" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F72" s="28"/>
       <x:c r="H72" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K72" s="28"/>
       <x:c r="L72" s="12" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="M72" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N72" s="12" t="s">
-        <x:v>265</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A73" s="7" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B73" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F73" s="28"/>
       <x:c r="I73" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K73" s="28"/>
       <x:c r="L73" s="12" t="s">
-        <x:v>267</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="M73" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N73" s="12" t="s">
-        <x:v>268</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A74" s="7" t="s">
-        <x:v>269</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B74" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F74" s="28"/>
       <x:c r="I74" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K74" s="28"/>
       <x:c r="L74" s="12" t="s">
-        <x:v>270</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="M74" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N74" s="12" t="s">
-        <x:v>271</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A75" s="7" t="s">
-        <x:v>272</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B75" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F75" s="28"/>
       <x:c r="I75" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K75" s="28"/>
       <x:c r="L75" s="12" t="s">
-        <x:v>273</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="M75" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N75" s="12" t="s">
-        <x:v>274</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A76" s="7" t="s">
-        <x:v>275</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B76" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F76" s="28"/>
       <x:c r="I76" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K76" s="28"/>
       <x:c r="L76" s="12" t="s">
-        <x:v>276</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M76" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N76" s="12" t="s">
-        <x:v>277</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A77" s="7" t="s">
-        <x:v>278</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B77" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F77" s="28"/>
       <x:c r="I77" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K77" s="28"/>
       <x:c r="L77" s="12" t="s">
-        <x:v>279</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="M77" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N77" s="12" t="s">
-        <x:v>280</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A78" s="7" t="s">
-        <x:v>281</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B78" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F78" s="28"/>
       <x:c r="I78" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K78" s="28"/>
       <x:c r="L78" s="12" t="s">
-        <x:v>282</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="M78" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N78" s="12" t="s">
-        <x:v>283</x:v>
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A79" s="7" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="B79" s="26" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F79" s="28"/>
+      <x:c r="H79" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K79" s="28"/>
+      <x:c r="L79" s="12" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="M79" s="12" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N79" s="12" t="s">
+        <x:v>289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A80" s="7" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="B80" s="26" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F80" s="28"/>
+      <x:c r="H80" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K80" s="28"/>
+      <x:c r="L80" s="12" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="M80" s="12" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="N80" s="12" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A81" s="7" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="B81" s="26" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F81" s="28"/>
+      <x:c r="H81" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K81" s="28"/>
+      <x:c r="L81" s="12" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="M81" s="12" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N81" s="12" t="s">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A82" s="7" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="B82" s="26" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F82" s="28"/>
+      <x:c r="H82" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K82" s="28"/>
+      <x:c r="L82" s="12" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="M82" s="12" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N82" s="12" t="s">
+        <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A83" s="7" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="B83" s="26" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F83" s="28"/>
+      <x:c r="H83" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K83" s="28"/>
+      <x:c r="L83" s="12" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="M83" s="12" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N83" s="12" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A84" s="7" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="B84" s="26" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F84" s="28"/>
+      <x:c r="H84" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K84" s="28"/>
+      <x:c r="L84" s="12" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="M84" s="12" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N84" s="12" t="s">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A85" s="7" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="B85" s="26" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F85" s="28"/>
+      <x:c r="H85" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K85" s="28"/>
+      <x:c r="L85" s="12" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="M85" s="12" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N85" s="12" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A86" s="7" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="B86" s="26" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F86" s="28"/>
+      <x:c r="H86" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K86" s="28"/>
+      <x:c r="L86" s="12" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="M86" s="12" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N86" s="12" t="s">
+        <x:v>310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A87" s="7" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="B87" s="26" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F87" s="28"/>
+      <x:c r="H87" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K87" s="28"/>
+      <x:c r="L87" s="12" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="M87" s="12" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="N87" s="12" t="s">
+        <x:v>313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A88" s="7" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="B88" s="26" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F88" s="28"/>
+      <x:c r="H88" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K88" s="28"/>
+      <x:c r="L88" s="12" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="M88" s="12" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N88" s="12" t="s">
+        <x:v>316</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A89" s="7" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="B89" s="26" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F89" s="28"/>
+      <x:c r="H89" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K89" s="28"/>
+      <x:c r="L89" s="12" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="M89" s="12" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="N89" s="12" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A90" s="7" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="B90" s="26" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F90" s="28"/>
+      <x:c r="H90" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K90" s="28"/>
+      <x:c r="L90" s="12" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="M90" s="12" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="N90" s="12" t="s">
+        <x:v>322</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/tests/test1/output/main-stats.xlsx
+++ b/tests/test1/output/main-stats.xlsx
@@ -90,7 +90,7 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:45</x:t>
+    <x:t>main.ink:46</x:t>
   </x:si>
   <x:si>
     <x:t>Recording</x:t>
@@ -105,7 +105,7 @@
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:61</x:t>
+    <x:t>main.ink:62</x:t>
   </x:si>
   <x:si>
     <x:t>Scene1</x:t>
@@ -267,10 +267,19 @@
     <x:t>Glad that's over with!</x:t>
   </x:si>
   <x:si>
+    <x:t>main_TestScene_Q099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Same snippet?</x:t>
+  </x:si>
+  <x:si>
     <x:t>main_Barks_O037</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:48</x:t>
+    <x:t>main.ink:49</x:t>
   </x:si>
   <x:si>
     <x:t>Bark1</x:t>
@@ -279,7 +288,7 @@
     <x:t>main_Barks_UWZ2</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:49</x:t>
+    <x:t>main.ink:50</x:t>
   </x:si>
   <x:si>
     <x:t>Bark2</x:t>
@@ -288,7 +297,7 @@
     <x:t>main_Barks_1ZG8</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:50</x:t>
+    <x:t>main.ink:51</x:t>
   </x:si>
   <x:si>
     <x:t>Bark3</x:t>
@@ -297,7 +306,7 @@
     <x:t>main_Barks_JFG1</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:53</x:t>
+    <x:t>main.ink:54</x:t>
   </x:si>
   <x:si>
     <x:t>Bark4</x:t>
@@ -306,7 +315,7 @@
     <x:t>main_Barks_X291</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:54</x:t>
+    <x:t>main.ink:55</x:t>
   </x:si>
   <x:si>
     <x:t>Response to Bark 4.</x:t>
@@ -315,7 +324,7 @@
     <x:t>main_Barks_L2SX</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:56</x:t>
+    <x:t>main.ink:57</x:t>
   </x:si>
   <x:si>
     <x:t>Bark5</x:t>
@@ -324,7 +333,7 @@
     <x:t>main_Barks_N07F</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:57</x:t>
+    <x:t>main.ink:58</x:t>
   </x:si>
   <x:si>
     <x:t>Bark6</x:t>
@@ -333,7 +342,7 @@
     <x:t>main_Recording_7ZMT</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:63</x:t>
+    <x:t>main.ink:64</x:t>
   </x:si>
   <x:si>
     <x:t>This is a recording line.</x:t>
@@ -342,7 +351,7 @@
     <x:t>main_Recording_PartA_U9ZN</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:71</x:t>
+    <x:t>main.ink:72</x:t>
   </x:si>
   <x:si>
     <x:t>This is a line hidden by a false clause.</x:t>
@@ -351,7 +360,7 @@
     <x:t>main_Recording_PartB_VPX8</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:81</x:t>
+    <x:t>main.ink:82</x:t>
   </x:si>
   <x:si>
     <x:t>This is a line.</x:t>
@@ -360,13 +369,13 @@
     <x:t>main_Recording_PartB_FH4U</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:83</x:t>
+    <x:t>main.ink:84</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_1RQS</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:85</x:t>
+    <x:t>main.ink:86</x:t>
   </x:si>
   <x:si>
     <x:t>This is also a line.</x:t>
@@ -375,7 +384,7 @@
     <x:t>main_Recording_PartC_JITN</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:92</x:t>
+    <x:t>main.ink:93</x:t>
   </x:si>
   <x:si>
     <x:t>This is a first line about monkeys.</x:t>
@@ -384,7 +393,7 @@
     <x:t>main_Recording_PartC_GUS9</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:93</x:t>
+    <x:t>main.ink:94</x:t>
   </x:si>
   <x:si>
     <x:t>This is a second line about monkeys.</x:t>
@@ -393,7 +402,7 @@
     <x:t>main_Recording_PartC_3VZB</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:94</x:t>
+    <x:t>main.ink:95</x:t>
   </x:si>
   <x:si>
     <x:t>This is a third monkey line.</x:t>
@@ -402,7 +411,7 @@
     <x:t>main_Recording_PartC_A18G</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:95</x:t>
+    <x:t>main.ink:96</x:t>
   </x:si>
   <x:si>
     <x:t>This is a final monkey line.</x:t>
@@ -411,19 +420,19 @@
     <x:t>main_Recording_PartD_UC9D</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:103</x:t>
+    <x:t>main.ink:104</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_08WO</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:105</x:t>
+    <x:t>main.ink:106</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_81AO</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:110</x:t>
+    <x:t>main.ink:111</x:t>
   </x:si>
   <x:si>
     <x:t>Goodbye!</x:t>
@@ -432,7 +441,7 @@
     <x:t>main_Recording_PartE_JY1W</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:111</x:t>
+    <x:t>main.ink:112</x:t>
   </x:si>
   <x:si>
     <x:t>Seeya!</x:t>
@@ -441,7 +450,7 @@
     <x:t>main_Recording_PartE_QEM8</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:112</x:t>
+    <x:t>main.ink:113</x:t>
   </x:si>
   <x:si>
     <x:t>Whoops!</x:t>
@@ -450,7 +459,7 @@
     <x:t>main_Recording_PartE_KABN</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:113</x:t>
+    <x:t>main.ink:114</x:t>
   </x:si>
   <x:si>
     <x:t>Responds.</x:t>
@@ -1417,8 +1426,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N90" totalsRowShown="0">
-  <x:autoFilter ref="A1:N90"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N91" totalsRowShown="0">
+  <x:autoFilter ref="A1:N91"/>
   <x:tableColumns count="14">
     <x:tableColumn id="1" name="Line ID" dataDxfId="1"/>
     <x:tableColumn id="2" name="Writing_x000a_Unknown" dataDxfId="3"/>
@@ -1819,8 +1828,8 @@
       <x:c r="H2" s="1">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I2" s="1">
-        <x:v>0</x:v>
+      <x:c r="I2" s="9">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J2" s="11">
         <x:v>4</x:v>
@@ -1832,7 +1841,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M2" s="10">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N2" s="12" t="s">
         <x:v>17</x:v>
@@ -2170,7 +2179,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I10" s="22">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J10" s="22">
         <x:v>37</x:v>
@@ -2182,7 +2191,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M10" s="10">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N10" s="12"/>
     </x:row>
@@ -2250,7 +2259,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C2" s="12">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D2" s="12">
         <x:v>2</x:v>
@@ -2259,7 +2268,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F2" s="24">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="13.5" customHeight="1">
@@ -2349,7 +2358,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N90"/>
+  <x:dimension ref="A1:N91"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
@@ -2586,7 +2595,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F8" s="28"/>
-      <x:c r="I8" s="34" t="s">
+      <x:c r="H8" s="33" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="K8" s="28"/>
@@ -2686,7 +2695,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="M12" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N12" s="12" t="s">
         <x:v>93</x:v>
@@ -2709,7 +2718,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="M13" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N13" s="12" t="s">
         <x:v>96</x:v>
@@ -2743,7 +2752,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B15" s="26"/>
-      <x:c r="D15" s="34" t="s">
+      <x:c r="C15" s="33" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="F15" s="28"/>
@@ -2766,7 +2775,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B16" s="26"/>
-      <x:c r="E16" s="27" t="s">
+      <x:c r="D16" s="34" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="F16" s="28"/>
@@ -2778,7 +2787,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="M16" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N16" s="12" t="s">
         <x:v>105</x:v>
@@ -2789,7 +2798,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B17" s="26"/>
-      <x:c r="D17" s="34" t="s">
+      <x:c r="E17" s="27" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="F17" s="28"/>
@@ -2824,15 +2833,15 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="M18" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N18" s="12" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B19" s="26"/>
       <x:c r="D19" s="34" t="s">
@@ -2844,13 +2853,13 @@
       </x:c>
       <x:c r="K19" s="28"/>
       <x:c r="L19" s="12" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="M19" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="N19" s="12" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" ht="13.5" customHeight="1">
@@ -2962,15 +2971,15 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="M24" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N24" s="12" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A25" s="7" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B25" s="26"/>
       <x:c r="D25" s="34" t="s">
@@ -2982,18 +2991,18 @@
       </x:c>
       <x:c r="K25" s="28"/>
       <x:c r="L25" s="12" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="M25" s="12" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="N25" s="12" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A26" s="7" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B26" s="26"/>
       <x:c r="D26" s="34" t="s">
@@ -3005,13 +3014,13 @@
       </x:c>
       <x:c r="K26" s="28"/>
       <x:c r="L26" s="12" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="M26" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N26" s="12" t="s">
-        <x:v>132</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14" ht="13.5" customHeight="1">
@@ -3077,7 +3086,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="M29" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N29" s="12" t="s">
         <x:v>141</x:v>
@@ -3087,11 +3096,12 @@
       <x:c r="A30" s="7" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="B30" s="26" t="s">
+      <x:c r="B30" s="26"/>
+      <x:c r="D30" s="34" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="F30" s="28"/>
-      <x:c r="J30" s="27" t="s">
+      <x:c r="I30" s="34" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="K30" s="28"/>
@@ -3099,7 +3109,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="M30" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N30" s="12" t="s">
         <x:v>144</x:v>
@@ -3121,7 +3131,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="M31" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N31" s="12" t="s">
         <x:v>147</x:v>
@@ -3131,30 +3141,19 @@
       <x:c r="A32" s="7" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="B32" s="26"/>
-      <x:c r="F32" s="32" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="G32" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H32" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I32" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J32" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K32" s="30" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="B32" s="26" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F32" s="28"/>
+      <x:c r="J32" s="27" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K32" s="28"/>
       <x:c r="L32" s="12" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="M32" s="31" t="s">
-        <x:v>40</x:v>
+      <x:c r="M32" s="12" t="s">
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N32" s="12" t="s">
         <x:v>150</x:v>
@@ -3168,15 +3167,26 @@
       <x:c r="F33" s="32" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="J33" s="27" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="K33" s="28"/>
+      <x:c r="G33" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H33" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I33" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J33" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K33" s="30" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="L33" s="12" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="M33" s="12" t="s">
-        <x:v>52</x:v>
+      <x:c r="M33" s="31" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N33" s="12" t="s">
         <x:v>153</x:v>
@@ -3190,26 +3200,15 @@
       <x:c r="F34" s="32" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="G34" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H34" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I34" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J34" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K34" s="30" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="J34" s="27" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K34" s="28"/>
       <x:c r="L34" s="12" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="M34" s="31" t="s">
-        <x:v>40</x:v>
+      <x:c r="M34" s="12" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N34" s="12" t="s">
         <x:v>156</x:v>
@@ -3223,15 +3222,26 @@
       <x:c r="F35" s="32" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="J35" s="27" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="K35" s="28"/>
+      <x:c r="G35" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H35" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I35" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J35" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K35" s="30" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="L35" s="12" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="M35" s="12" t="s">
-        <x:v>52</x:v>
+      <x:c r="M35" s="31" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N35" s="12" t="s">
         <x:v>159</x:v>
@@ -3245,26 +3255,15 @@
       <x:c r="F36" s="32" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="G36" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H36" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I36" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J36" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K36" s="30" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="J36" s="27" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K36" s="28"/>
       <x:c r="L36" s="12" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="M36" s="31" t="s">
-        <x:v>40</x:v>
+      <x:c r="M36" s="12" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N36" s="12" t="s">
         <x:v>162</x:v>
@@ -3278,15 +3277,26 @@
       <x:c r="F37" s="32" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="J37" s="27" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="K37" s="28"/>
+      <x:c r="G37" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H37" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I37" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J37" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K37" s="30" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="L37" s="12" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="M37" s="12" t="s">
-        <x:v>52</x:v>
+      <x:c r="M37" s="31" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N37" s="12" t="s">
         <x:v>165</x:v>
@@ -3300,7 +3310,7 @@
       <x:c r="F38" s="32" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="H38" s="33" t="s">
+      <x:c r="J38" s="27" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="K38" s="28"/>
@@ -3330,7 +3340,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="M39" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N39" s="12" t="s">
         <x:v>171</x:v>
@@ -3352,7 +3362,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="M40" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N40" s="12" t="s">
         <x:v>174</x:v>
@@ -3366,7 +3376,7 @@
       <x:c r="F41" s="32" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="J41" s="27" t="s">
+      <x:c r="H41" s="33" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="K41" s="28"/>
@@ -3374,7 +3384,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="M41" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N41" s="12" t="s">
         <x:v>177</x:v>
@@ -3384,10 +3394,10 @@
       <x:c r="A42" s="7" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="B42" s="26" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="F42" s="28"/>
+      <x:c r="B42" s="26"/>
+      <x:c r="F42" s="32" t="s">
+        <x:v>61</x:v>
+      </x:c>
       <x:c r="J42" s="27" t="s">
         <x:v>61</x:v>
       </x:c>
@@ -3432,26 +3442,15 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F44" s="28"/>
-      <x:c r="G44" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H44" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I44" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J44" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K44" s="30" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="J44" s="27" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K44" s="28"/>
       <x:c r="L44" s="12" t="s">
         <x:v>185</x:v>
       </x:c>
-      <x:c r="M44" s="31" t="s">
-        <x:v>40</x:v>
+      <x:c r="M44" s="12" t="s">
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N44" s="12" t="s">
         <x:v>186</x:v>
@@ -3465,15 +3464,26 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F45" s="28"/>
-      <x:c r="I45" s="34" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="K45" s="28"/>
+      <x:c r="G45" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H45" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I45" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J45" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K45" s="30" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="L45" s="12" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="M45" s="12" t="s">
-        <x:v>55</x:v>
+      <x:c r="M45" s="31" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N45" s="12" t="s">
         <x:v>189</x:v>
@@ -3487,7 +3497,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F46" s="28"/>
-      <x:c r="H46" s="33" t="s">
+      <x:c r="I46" s="34" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="K46" s="28"/>
@@ -3495,7 +3505,7 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="M46" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N46" s="12" t="s">
         <x:v>192</x:v>
@@ -3509,26 +3519,15 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F47" s="28"/>
-      <x:c r="G47" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H47" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I47" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J47" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K47" s="30" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="H47" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K47" s="28"/>
       <x:c r="L47" s="12" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="M47" s="31" t="s">
-        <x:v>40</x:v>
+      <x:c r="M47" s="12" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N47" s="12" t="s">
         <x:v>195</x:v>
@@ -3542,23 +3541,34 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F48" s="28"/>
-      <x:c r="H48" s="33" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="K48" s="28"/>
+      <x:c r="G48" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H48" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I48" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J48" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K48" s="30" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="L48" s="12" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="M48" s="12" t="s">
-        <x:v>55</x:v>
+      <x:c r="M48" s="31" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N48" s="12" t="s">
-        <x:v>195</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A49" s="7" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B49" s="26" t="s">
         <x:v>61</x:v>
@@ -3569,13 +3579,13 @@
       </x:c>
       <x:c r="K49" s="28"/>
       <x:c r="L49" s="12" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="M49" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N49" s="12" t="s">
-        <x:v>200</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:14" ht="13.5" customHeight="1">
@@ -3586,26 +3596,15 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F50" s="28"/>
-      <x:c r="G50" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H50" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I50" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J50" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K50" s="30" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="H50" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K50" s="28"/>
       <x:c r="L50" s="12" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="M50" s="31" t="s">
-        <x:v>40</x:v>
+      <x:c r="M50" s="12" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N50" s="12" t="s">
         <x:v>203</x:v>
@@ -3619,23 +3618,34 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F51" s="28"/>
-      <x:c r="I51" s="34" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="K51" s="28"/>
+      <x:c r="G51" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H51" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I51" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J51" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K51" s="30" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="L51" s="12" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="M51" s="12" t="s">
-        <x:v>55</x:v>
+      <x:c r="M51" s="31" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N51" s="12" t="s">
-        <x:v>203</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A52" s="7" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B52" s="26" t="s">
         <x:v>61</x:v>
@@ -3646,13 +3656,13 @@
       </x:c>
       <x:c r="K52" s="28"/>
       <x:c r="L52" s="12" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="M52" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N52" s="12" t="s">
-        <x:v>208</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:14" ht="13.5" customHeight="1">
@@ -3707,26 +3717,15 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F55" s="28"/>
-      <x:c r="G55" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H55" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I55" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J55" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K55" s="30" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="I55" s="34" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K55" s="28"/>
       <x:c r="L55" s="12" t="s">
         <x:v>216</x:v>
       </x:c>
-      <x:c r="M55" s="31" t="s">
-        <x:v>40</x:v>
+      <x:c r="M55" s="12" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N55" s="12" t="s">
         <x:v>217</x:v>
@@ -3773,15 +3772,26 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F57" s="28"/>
-      <x:c r="H57" s="33" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="K57" s="28"/>
+      <x:c r="G57" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H57" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I57" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J57" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K57" s="30" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="L57" s="12" t="s">
         <x:v>222</x:v>
       </x:c>
-      <x:c r="M57" s="12" t="s">
-        <x:v>55</x:v>
+      <x:c r="M57" s="31" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N57" s="12" t="s">
         <x:v>223</x:v>
@@ -3803,7 +3813,7 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="M58" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N58" s="12" t="s">
         <x:v>226</x:v>
@@ -3825,7 +3835,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="M59" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N59" s="12" t="s">
         <x:v>229</x:v>
@@ -3847,7 +3857,7 @@
         <x:v>231</x:v>
       </x:c>
       <x:c r="M60" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N60" s="12" t="s">
         <x:v>232</x:v>
@@ -3883,26 +3893,15 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F62" s="28"/>
-      <x:c r="G62" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H62" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I62" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J62" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K62" s="30" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="H62" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K62" s="28"/>
       <x:c r="L62" s="12" t="s">
         <x:v>237</x:v>
       </x:c>
-      <x:c r="M62" s="31" t="s">
-        <x:v>40</x:v>
+      <x:c r="M62" s="12" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N62" s="12" t="s">
         <x:v>238</x:v>
@@ -3916,15 +3915,26 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F63" s="28"/>
-      <x:c r="H63" s="33" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="K63" s="28"/>
+      <x:c r="G63" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H63" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I63" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J63" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K63" s="30" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="L63" s="12" t="s">
         <x:v>240</x:v>
       </x:c>
-      <x:c r="M63" s="12" t="s">
-        <x:v>55</x:v>
+      <x:c r="M63" s="31" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N63" s="12" t="s">
         <x:v>241</x:v>
@@ -3946,7 +3956,7 @@
         <x:v>243</x:v>
       </x:c>
       <x:c r="M64" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N64" s="12" t="s">
         <x:v>244</x:v>
@@ -3960,26 +3970,15 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F65" s="28"/>
-      <x:c r="G65" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H65" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I65" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J65" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K65" s="30" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="H65" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K65" s="28"/>
       <x:c r="L65" s="12" t="s">
         <x:v>246</x:v>
       </x:c>
-      <x:c r="M65" s="31" t="s">
-        <x:v>40</x:v>
+      <x:c r="M65" s="12" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N65" s="12" t="s">
         <x:v>247</x:v>
@@ -3993,15 +3992,26 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F66" s="28"/>
-      <x:c r="H66" s="33" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="K66" s="28"/>
+      <x:c r="G66" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H66" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I66" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J66" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K66" s="30" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="L66" s="12" t="s">
         <x:v>249</x:v>
       </x:c>
-      <x:c r="M66" s="12" t="s">
-        <x:v>55</x:v>
+      <x:c r="M66" s="31" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N66" s="12" t="s">
         <x:v>250</x:v>
@@ -4023,7 +4033,7 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="M67" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N67" s="12" t="s">
         <x:v>253</x:v>
@@ -4037,26 +4047,15 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F68" s="28"/>
-      <x:c r="G68" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H68" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I68" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J68" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K68" s="30" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="H68" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K68" s="28"/>
       <x:c r="L68" s="12" t="s">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="M68" s="31" t="s">
-        <x:v>40</x:v>
+      <x:c r="M68" s="12" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N68" s="12" t="s">
         <x:v>256</x:v>
@@ -4103,15 +4102,26 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F70" s="28"/>
-      <x:c r="H70" s="33" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="K70" s="28"/>
+      <x:c r="G70" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H70" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I70" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J70" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K70" s="30" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="L70" s="12" t="s">
         <x:v>261</x:v>
       </x:c>
-      <x:c r="M70" s="12" t="s">
-        <x:v>55</x:v>
+      <x:c r="M70" s="31" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N70" s="12" t="s">
         <x:v>262</x:v>
@@ -4133,7 +4143,7 @@
         <x:v>264</x:v>
       </x:c>
       <x:c r="M71" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N71" s="12" t="s">
         <x:v>265</x:v>
@@ -4169,7 +4179,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F73" s="28"/>
-      <x:c r="I73" s="34" t="s">
+      <x:c r="H73" s="33" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="K73" s="28"/>
@@ -4177,7 +4187,7 @@
         <x:v>270</x:v>
       </x:c>
       <x:c r="M73" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N73" s="12" t="s">
         <x:v>271</x:v>
@@ -4199,7 +4209,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="M74" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N74" s="12" t="s">
         <x:v>274</x:v>
@@ -4221,7 +4231,7 @@
         <x:v>276</x:v>
       </x:c>
       <x:c r="M75" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N75" s="12" t="s">
         <x:v>277</x:v>
@@ -4287,7 +4297,7 @@
         <x:v>285</x:v>
       </x:c>
       <x:c r="M78" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N78" s="12" t="s">
         <x:v>286</x:v>
@@ -4301,7 +4311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F79" s="28"/>
-      <x:c r="H79" s="33" t="s">
+      <x:c r="I79" s="34" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="K79" s="28"/>
@@ -4309,7 +4319,7 @@
         <x:v>288</x:v>
       </x:c>
       <x:c r="M79" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N79" s="12" t="s">
         <x:v>289</x:v>
@@ -4331,7 +4341,7 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="M80" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N80" s="12" t="s">
         <x:v>292</x:v>
@@ -4353,7 +4363,7 @@
         <x:v>294</x:v>
       </x:c>
       <x:c r="M81" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N81" s="12" t="s">
         <x:v>295</x:v>
@@ -4485,7 +4495,7 @@
         <x:v>312</x:v>
       </x:c>
       <x:c r="M87" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N87" s="12" t="s">
         <x:v>313</x:v>
@@ -4507,7 +4517,7 @@
         <x:v>315</x:v>
       </x:c>
       <x:c r="M88" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N88" s="12" t="s">
         <x:v>316</x:v>
@@ -4529,7 +4539,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="M89" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N89" s="12" t="s">
         <x:v>319</x:v>
@@ -4555,6 +4565,28 @@
       </x:c>
       <x:c r="N90" s="12" t="s">
         <x:v>322</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:14" ht="13.5" customHeight="1">
+      <x:c r="A91" s="7" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="B91" s="26" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F91" s="28"/>
+      <x:c r="H91" s="33" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K91" s="28"/>
+      <x:c r="L91" s="12" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="M91" s="12" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="N91" s="12" t="s">
+        <x:v>325</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/tests/test1/output/main-stats.xlsx
+++ b/tests/test1/output/main-stats.xlsx
@@ -366,19 +366,19 @@
     <x:t>This is a line.</x:t>
   </x:si>
   <x:si>
+    <x:t>main_Recording_PartB_1RQS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is also a line.</x:t>
+  </x:si>
+  <x:si>
     <x:t>main_Recording_PartB_FH4U</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartB_1RQS</x:t>
-  </x:si>
-  <x:si>
     <x:t>main.ink:86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is also a line.</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_JITN</x:t>
@@ -2859,12 +2859,12 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="N19" s="12" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A20" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B20" s="26"/>
       <x:c r="D20" s="34" t="s">
@@ -2876,13 +2876,13 @@
       </x:c>
       <x:c r="K20" s="28"/>
       <x:c r="L20" s="12" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="M20" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="N20" s="12" t="s">
-        <x:v>116</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14" ht="13.5" customHeight="1">
@@ -3020,7 +3020,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="N26" s="12" t="s">
-        <x:v>116</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14" ht="13.5" customHeight="1">

--- a/tests/test1/output/main-stats.xlsx
+++ b/tests/test1/output/main-stats.xlsx
@@ -366,19 +366,19 @@
     <x:t>This is a line.</x:t>
   </x:si>
   <x:si>
+    <x:t>main_Recording_PartB_FH4U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:84</x:t>
+  </x:si>
+  <x:si>
     <x:t>main_Recording_PartB_1RQS</x:t>
   </x:si>
   <x:si>
-    <x:t>main.ink:84</x:t>
+    <x:t>main.ink:86</x:t>
   </x:si>
   <x:si>
     <x:t>This is also a line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartB_FH4U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:86</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_JITN</x:t>
@@ -2859,12 +2859,12 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="N19" s="12" t="s">
-        <x:v>114</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" ht="13.5" customHeight="1">
       <x:c r="A20" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B20" s="26"/>
       <x:c r="D20" s="34" t="s">
@@ -2876,13 +2876,13 @@
       </x:c>
       <x:c r="K20" s="28"/>
       <x:c r="L20" s="12" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="M20" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="N20" s="12" t="s">
-        <x:v>111</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14" ht="13.5" customHeight="1">
@@ -3020,7 +3020,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="N26" s="12" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14" ht="13.5" customHeight="1">
